--- a/Documents/Detail Design/K0001_Homepage/K0001_ScreenLayout.xlsx
+++ b/Documents/Detail Design/K0001_Homepage/K0001_ScreenLayout.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ChuyenNganh\ChuyenNhanh9\Final_Project\Documents\Detail Design\K0001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\卒業研究\FPT_卒業提案\captones\Final_Project\Documents\Detail Design\K0001_Homepage\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Screen Layout'!$A$1:$BI$63</definedName>
   </definedNames>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -299,7 +299,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="89">
   <si>
     <t>Bản thiết kế chi tiết</t>
   </si>
@@ -337,21 +337,6 @@
     <t>Logo</t>
   </si>
   <si>
-    <t>Ngôn ngữ</t>
-  </si>
-  <si>
-    <t>Trang chủ</t>
-  </si>
-  <si>
-    <t>Phòng</t>
-  </si>
-  <si>
-    <t>Ảnh</t>
-  </si>
-  <si>
-    <t>Đăng nhập</t>
-  </si>
-  <si>
     <t>Image</t>
   </si>
   <si>
@@ -359,9 +344,6 @@
   </si>
   <si>
     <t>Ins</t>
-  </si>
-  <si>
-    <t>Thông tin liên hệ</t>
   </si>
   <si>
     <t>27/6/2016</t>
@@ -670,6 +652,15 @@
   </si>
   <si>
     <t>Facebook</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
+    <t>Contacts</t>
   </si>
 </sst>
 </file>
@@ -1537,6 +1528,75 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1570,36 +1630,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1609,128 +1639,175 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1779,127 +1856,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2482,13 +2473,8 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr lang="en-US" sz="1600" u="sng"/>
-              <a:t>Phòng</a:t>
+              <a:t>Room</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" u="sng" baseline="0"/>
-              <a:t> ở</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1600" u="sng"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2526,14 +2512,14 @@
           <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr algn="ctr"/>
+            <a:pPr lvl="0" algn="ctr"/>
             <a:r>
-              <a:rPr lang="en-US" sz="1600" u="sng"/>
-              <a:t>  Ẩm</a:t>
+              <a:rPr lang="en-US" sz="1600" u="none" baseline="0"/>
+              <a:t>     </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1600" u="sng" baseline="0"/>
-              <a:t> thực</a:t>
+              <a:t>Foods</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1100" baseline="0"/>
@@ -2638,13 +2624,8 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Thông</a:t>
+            <a:t>Information</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> tin</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6759,8 +6740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="73" workbookViewId="0">
-      <selection activeCell="AM26" sqref="AM26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="73" workbookViewId="0">
+      <selection activeCell="AP58" sqref="AP58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="12" customHeight="1"/>
@@ -6769,210 +6750,210 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="12" customHeight="1">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="152" t="s">
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="135"/>
-      <c r="S1" s="130" t="s">
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="131"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="133" t="s">
+      <c r="T1" s="138"/>
+      <c r="U1" s="139"/>
+      <c r="V1" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="134"/>
-      <c r="X1" s="134"/>
-      <c r="Y1" s="134"/>
-      <c r="Z1" s="134"/>
-      <c r="AA1" s="134"/>
-      <c r="AB1" s="134"/>
-      <c r="AC1" s="134"/>
-      <c r="AD1" s="135"/>
-      <c r="AE1" s="139" t="s">
+      <c r="W1" s="129"/>
+      <c r="X1" s="129"/>
+      <c r="Y1" s="129"/>
+      <c r="Z1" s="129"/>
+      <c r="AA1" s="129"/>
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="129"/>
+      <c r="AD1" s="130"/>
+      <c r="AE1" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="AF1" s="139"/>
-      <c r="AG1" s="139"/>
-      <c r="AH1" s="140">
+      <c r="AF1" s="141"/>
+      <c r="AG1" s="141"/>
+      <c r="AH1" s="153">
         <v>42982</v>
       </c>
-      <c r="AI1" s="141"/>
-      <c r="AJ1" s="141"/>
-      <c r="AK1" s="141"/>
-      <c r="AL1" s="127" t="s">
+      <c r="AI1" s="154"/>
+      <c r="AJ1" s="154"/>
+      <c r="AK1" s="154"/>
+      <c r="AL1" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="AM1" s="127"/>
-      <c r="AN1" s="127"/>
-      <c r="AO1" s="128" t="s">
+      <c r="AM1" s="150"/>
+      <c r="AN1" s="150"/>
+      <c r="AO1" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="AP1" s="129"/>
-      <c r="AQ1" s="129"/>
-      <c r="AR1" s="129"/>
+      <c r="AP1" s="152"/>
+      <c r="AQ1" s="152"/>
+      <c r="AR1" s="152"/>
     </row>
     <row r="2" spans="1:44" ht="12" customHeight="1">
-      <c r="A2" s="146"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="154"/>
-      <c r="R2" s="155"/>
-      <c r="S2" s="130"/>
-      <c r="T2" s="131"/>
-      <c r="U2" s="132"/>
-      <c r="V2" s="136"/>
-      <c r="W2" s="137"/>
-      <c r="X2" s="137"/>
-      <c r="Y2" s="137"/>
-      <c r="Z2" s="137"/>
-      <c r="AA2" s="137"/>
-      <c r="AB2" s="137"/>
-      <c r="AC2" s="137"/>
-      <c r="AD2" s="138"/>
-      <c r="AE2" s="139"/>
-      <c r="AF2" s="139"/>
-      <c r="AG2" s="139"/>
-      <c r="AH2" s="141"/>
-      <c r="AI2" s="141"/>
-      <c r="AJ2" s="141"/>
-      <c r="AK2" s="141"/>
-      <c r="AL2" s="127"/>
-      <c r="AM2" s="127"/>
-      <c r="AN2" s="127"/>
-      <c r="AO2" s="129"/>
-      <c r="AP2" s="129"/>
-      <c r="AQ2" s="129"/>
-      <c r="AR2" s="129"/>
+      <c r="A2" s="122"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="132"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="137"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="139"/>
+      <c r="V2" s="134"/>
+      <c r="W2" s="135"/>
+      <c r="X2" s="135"/>
+      <c r="Y2" s="135"/>
+      <c r="Z2" s="135"/>
+      <c r="AA2" s="135"/>
+      <c r="AB2" s="135"/>
+      <c r="AC2" s="135"/>
+      <c r="AD2" s="136"/>
+      <c r="AE2" s="141"/>
+      <c r="AF2" s="141"/>
+      <c r="AG2" s="141"/>
+      <c r="AH2" s="154"/>
+      <c r="AI2" s="154"/>
+      <c r="AJ2" s="154"/>
+      <c r="AK2" s="154"/>
+      <c r="AL2" s="150"/>
+      <c r="AM2" s="150"/>
+      <c r="AN2" s="150"/>
+      <c r="AO2" s="152"/>
+      <c r="AP2" s="152"/>
+      <c r="AQ2" s="152"/>
+      <c r="AR2" s="152"/>
     </row>
     <row r="3" spans="1:44" ht="12" customHeight="1">
-      <c r="A3" s="146"/>
-      <c r="B3" s="147"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="154"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="154"/>
-      <c r="N3" s="154"/>
-      <c r="O3" s="154"/>
-      <c r="P3" s="154"/>
-      <c r="Q3" s="154"/>
-      <c r="R3" s="155"/>
-      <c r="S3" s="130" t="s">
+      <c r="A3" s="122"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="132"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="132"/>
+      <c r="P3" s="132"/>
+      <c r="Q3" s="132"/>
+      <c r="R3" s="133"/>
+      <c r="S3" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="131"/>
-      <c r="U3" s="132"/>
-      <c r="V3" s="133" t="s">
+      <c r="T3" s="138"/>
+      <c r="U3" s="139"/>
+      <c r="V3" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="W3" s="134"/>
-      <c r="X3" s="134"/>
-      <c r="Y3" s="134"/>
-      <c r="Z3" s="134"/>
-      <c r="AA3" s="134"/>
-      <c r="AB3" s="134"/>
-      <c r="AC3" s="134"/>
-      <c r="AD3" s="135"/>
-      <c r="AE3" s="139" t="s">
+      <c r="W3" s="129"/>
+      <c r="X3" s="129"/>
+      <c r="Y3" s="129"/>
+      <c r="Z3" s="129"/>
+      <c r="AA3" s="129"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="129"/>
+      <c r="AD3" s="130"/>
+      <c r="AE3" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="AF3" s="139"/>
-      <c r="AG3" s="139"/>
-      <c r="AH3" s="140"/>
-      <c r="AI3" s="141"/>
-      <c r="AJ3" s="141"/>
-      <c r="AK3" s="141"/>
-      <c r="AL3" s="139"/>
-      <c r="AM3" s="139"/>
-      <c r="AN3" s="139"/>
-      <c r="AO3" s="141"/>
-      <c r="AP3" s="141"/>
-      <c r="AQ3" s="141"/>
-      <c r="AR3" s="141"/>
+      <c r="AF3" s="141"/>
+      <c r="AG3" s="141"/>
+      <c r="AH3" s="153"/>
+      <c r="AI3" s="154"/>
+      <c r="AJ3" s="154"/>
+      <c r="AK3" s="154"/>
+      <c r="AL3" s="141"/>
+      <c r="AM3" s="141"/>
+      <c r="AN3" s="141"/>
+      <c r="AO3" s="154"/>
+      <c r="AP3" s="154"/>
+      <c r="AQ3" s="154"/>
+      <c r="AR3" s="154"/>
     </row>
     <row r="4" spans="1:44" ht="12" customHeight="1">
-      <c r="A4" s="149"/>
-      <c r="B4" s="150"/>
-      <c r="C4" s="150"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="137"/>
-      <c r="K4" s="137"/>
-      <c r="L4" s="137"/>
-      <c r="M4" s="137"/>
-      <c r="N4" s="137"/>
-      <c r="O4" s="137"/>
-      <c r="P4" s="137"/>
-      <c r="Q4" s="137"/>
-      <c r="R4" s="138"/>
-      <c r="S4" s="130"/>
-      <c r="T4" s="131"/>
-      <c r="U4" s="132"/>
-      <c r="V4" s="136"/>
-      <c r="W4" s="137"/>
-      <c r="X4" s="137"/>
-      <c r="Y4" s="137"/>
-      <c r="Z4" s="137"/>
-      <c r="AA4" s="137"/>
-      <c r="AB4" s="137"/>
-      <c r="AC4" s="137"/>
-      <c r="AD4" s="138"/>
-      <c r="AE4" s="139"/>
-      <c r="AF4" s="139"/>
-      <c r="AG4" s="139"/>
-      <c r="AH4" s="141"/>
-      <c r="AI4" s="141"/>
-      <c r="AJ4" s="141"/>
-      <c r="AK4" s="141"/>
-      <c r="AL4" s="139"/>
-      <c r="AM4" s="139"/>
-      <c r="AN4" s="139"/>
-      <c r="AO4" s="141"/>
-      <c r="AP4" s="141"/>
-      <c r="AQ4" s="141"/>
-      <c r="AR4" s="141"/>
+      <c r="A4" s="125"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="135"/>
+      <c r="M4" s="135"/>
+      <c r="N4" s="135"/>
+      <c r="O4" s="135"/>
+      <c r="P4" s="135"/>
+      <c r="Q4" s="135"/>
+      <c r="R4" s="136"/>
+      <c r="S4" s="137"/>
+      <c r="T4" s="138"/>
+      <c r="U4" s="139"/>
+      <c r="V4" s="134"/>
+      <c r="W4" s="135"/>
+      <c r="X4" s="135"/>
+      <c r="Y4" s="135"/>
+      <c r="Z4" s="135"/>
+      <c r="AA4" s="135"/>
+      <c r="AB4" s="135"/>
+      <c r="AC4" s="135"/>
+      <c r="AD4" s="136"/>
+      <c r="AE4" s="141"/>
+      <c r="AF4" s="141"/>
+      <c r="AG4" s="141"/>
+      <c r="AH4" s="154"/>
+      <c r="AI4" s="154"/>
+      <c r="AJ4" s="154"/>
+      <c r="AK4" s="154"/>
+      <c r="AL4" s="141"/>
+      <c r="AM4" s="141"/>
+      <c r="AN4" s="141"/>
+      <c r="AO4" s="154"/>
+      <c r="AP4" s="154"/>
+      <c r="AQ4" s="154"/>
+      <c r="AR4" s="154"/>
     </row>
     <row r="6" spans="1:44" ht="12" customHeight="1">
       <c r="B6" s="103" t="s">
@@ -6982,7 +6963,7 @@
       <c r="D6" s="104"/>
       <c r="E6" s="105"/>
       <c r="F6" s="106" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G6" s="107"/>
       <c r="H6" s="107"/>
@@ -7020,7 +7001,7 @@
       <c r="F13" s="111"/>
       <c r="G13" s="1"/>
       <c r="H13" s="112" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I13" s="113"/>
       <c r="J13" s="113"/>
@@ -7031,28 +7012,28 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="109" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="R13" s="110"/>
       <c r="S13" s="110"/>
       <c r="T13" s="111"/>
       <c r="U13" s="1"/>
       <c r="V13" s="109" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="W13" s="110"/>
       <c r="X13" s="110"/>
       <c r="Y13" s="111"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="109" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="AB13" s="110"/>
       <c r="AC13" s="110"/>
       <c r="AD13" s="111"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="109" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="AG13" s="110"/>
       <c r="AH13" s="110"/>
@@ -7572,11 +7553,11 @@
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="142" t="s">
-        <v>17</v>
-      </c>
-      <c r="L28" s="142"/>
-      <c r="M28" s="142"/>
+      <c r="K28" s="155" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="155"/>
+      <c r="M28" s="155"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
@@ -7610,9 +7591,9 @@
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
-      <c r="K29" s="142"/>
-      <c r="L29" s="142"/>
-      <c r="M29" s="142"/>
+      <c r="K29" s="155"/>
+      <c r="L29" s="155"/>
+      <c r="M29" s="155"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
@@ -8416,15 +8397,15 @@
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
-      <c r="Z51" s="119" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA51" s="120"/>
+      <c r="Z51" s="142" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA51" s="143"/>
       <c r="AB51" s="1"/>
-      <c r="AC51" s="123" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD51" s="120"/>
+      <c r="AC51" s="146" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD51" s="143"/>
       <c r="AE51" s="1"/>
       <c r="AF51" s="1"/>
       <c r="AG51" s="1"/>
@@ -8456,11 +8437,11 @@
       <c r="W52" s="4"/>
       <c r="X52" s="4"/>
       <c r="Y52" s="4"/>
-      <c r="Z52" s="121"/>
-      <c r="AA52" s="122"/>
+      <c r="Z52" s="144"/>
+      <c r="AA52" s="145"/>
       <c r="AB52" s="4"/>
-      <c r="AC52" s="121"/>
-      <c r="AD52" s="122"/>
+      <c r="AC52" s="144"/>
+      <c r="AD52" s="145"/>
       <c r="AE52" s="4"/>
       <c r="AF52" s="4"/>
       <c r="AG52" s="4"/>
@@ -8514,27 +8495,27 @@
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
-      <c r="L54" s="124" t="s">
-        <v>20</v>
-      </c>
-      <c r="M54" s="125"/>
-      <c r="N54" s="125"/>
-      <c r="O54" s="125"/>
-      <c r="P54" s="125"/>
-      <c r="Q54" s="125"/>
-      <c r="R54" s="125"/>
-      <c r="S54" s="125"/>
-      <c r="T54" s="125"/>
-      <c r="U54" s="125"/>
-      <c r="V54" s="125"/>
-      <c r="W54" s="125"/>
-      <c r="X54" s="125"/>
-      <c r="Y54" s="125"/>
-      <c r="Z54" s="125"/>
-      <c r="AA54" s="125"/>
-      <c r="AB54" s="125"/>
-      <c r="AC54" s="125"/>
-      <c r="AD54" s="120"/>
+      <c r="L54" s="147" t="s">
+        <v>88</v>
+      </c>
+      <c r="M54" s="148"/>
+      <c r="N54" s="148"/>
+      <c r="O54" s="148"/>
+      <c r="P54" s="148"/>
+      <c r="Q54" s="148"/>
+      <c r="R54" s="148"/>
+      <c r="S54" s="148"/>
+      <c r="T54" s="148"/>
+      <c r="U54" s="148"/>
+      <c r="V54" s="148"/>
+      <c r="W54" s="148"/>
+      <c r="X54" s="148"/>
+      <c r="Y54" s="148"/>
+      <c r="Z54" s="148"/>
+      <c r="AA54" s="148"/>
+      <c r="AB54" s="148"/>
+      <c r="AC54" s="148"/>
+      <c r="AD54" s="143"/>
       <c r="AE54" s="8"/>
       <c r="AF54" s="8"/>
       <c r="AG54" s="8"/>
@@ -8552,25 +8533,25 @@
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
-      <c r="L55" s="121"/>
-      <c r="M55" s="126"/>
-      <c r="N55" s="126"/>
-      <c r="O55" s="126"/>
-      <c r="P55" s="126"/>
-      <c r="Q55" s="126"/>
-      <c r="R55" s="126"/>
-      <c r="S55" s="126"/>
-      <c r="T55" s="126"/>
-      <c r="U55" s="126"/>
-      <c r="V55" s="126"/>
-      <c r="W55" s="126"/>
-      <c r="X55" s="126"/>
-      <c r="Y55" s="126"/>
-      <c r="Z55" s="126"/>
-      <c r="AA55" s="126"/>
-      <c r="AB55" s="126"/>
-      <c r="AC55" s="126"/>
-      <c r="AD55" s="122"/>
+      <c r="L55" s="144"/>
+      <c r="M55" s="149"/>
+      <c r="N55" s="149"/>
+      <c r="O55" s="149"/>
+      <c r="P55" s="149"/>
+      <c r="Q55" s="149"/>
+      <c r="R55" s="149"/>
+      <c r="S55" s="149"/>
+      <c r="T55" s="149"/>
+      <c r="U55" s="149"/>
+      <c r="V55" s="149"/>
+      <c r="W55" s="149"/>
+      <c r="X55" s="149"/>
+      <c r="Y55" s="149"/>
+      <c r="Z55" s="149"/>
+      <c r="AA55" s="149"/>
+      <c r="AB55" s="149"/>
+      <c r="AC55" s="149"/>
+      <c r="AD55" s="145"/>
       <c r="AE55" s="8"/>
       <c r="AF55" s="8"/>
       <c r="AG55" s="8"/>
@@ -8653,11 +8634,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:H4"/>
-    <mergeCell ref="I1:R4"/>
-    <mergeCell ref="S1:U2"/>
-    <mergeCell ref="V1:AD2"/>
-    <mergeCell ref="AE1:AG2"/>
     <mergeCell ref="Z51:AA52"/>
     <mergeCell ref="AC51:AD52"/>
     <mergeCell ref="L54:AD55"/>
@@ -8671,6 +8647,11 @@
     <mergeCell ref="AO3:AR4"/>
     <mergeCell ref="AH1:AK2"/>
     <mergeCell ref="K28:M29"/>
+    <mergeCell ref="A1:H4"/>
+    <mergeCell ref="I1:R4"/>
+    <mergeCell ref="S1:U2"/>
+    <mergeCell ref="V1:AD2"/>
+    <mergeCell ref="AE1:AG2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="54" orientation="portrait" r:id="rId1"/>
@@ -10160,263 +10141,263 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:75" ht="12.95" customHeight="1">
-      <c r="B2" s="256" t="s">
+      <c r="B2" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
-      <c r="H2" s="256"/>
-      <c r="I2" s="256"/>
-      <c r="J2" s="256"/>
-      <c r="K2" s="256"/>
-      <c r="L2" s="255" t="s">
-        <v>90</v>
-      </c>
-      <c r="M2" s="255"/>
-      <c r="N2" s="255"/>
-      <c r="O2" s="255"/>
-      <c r="P2" s="255"/>
-      <c r="Q2" s="255"/>
-      <c r="R2" s="255"/>
-      <c r="S2" s="255"/>
-      <c r="T2" s="255"/>
-      <c r="U2" s="245" t="s">
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="171"/>
+      <c r="L2" s="170" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" s="170"/>
+      <c r="N2" s="170"/>
+      <c r="O2" s="170"/>
+      <c r="P2" s="170"/>
+      <c r="Q2" s="170"/>
+      <c r="R2" s="170"/>
+      <c r="S2" s="170"/>
+      <c r="T2" s="170"/>
+      <c r="U2" s="159" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="246"/>
-      <c r="W2" s="246"/>
-      <c r="X2" s="246"/>
-      <c r="Y2" s="246"/>
-      <c r="Z2" s="246"/>
-      <c r="AA2" s="246"/>
-      <c r="AB2" s="246"/>
-      <c r="AC2" s="246"/>
-      <c r="AD2" s="246"/>
-      <c r="AE2" s="247"/>
-      <c r="AM2" s="248" t="s">
-        <v>89</v>
-      </c>
-      <c r="AN2" s="249"/>
-      <c r="AO2" s="249"/>
-      <c r="AP2" s="249"/>
-      <c r="AQ2" s="250"/>
-      <c r="AW2" s="238" t="s">
+      <c r="V2" s="160"/>
+      <c r="W2" s="160"/>
+      <c r="X2" s="160"/>
+      <c r="Y2" s="160"/>
+      <c r="Z2" s="160"/>
+      <c r="AA2" s="160"/>
+      <c r="AB2" s="160"/>
+      <c r="AC2" s="160"/>
+      <c r="AD2" s="160"/>
+      <c r="AE2" s="161"/>
+      <c r="AM2" s="162" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN2" s="163"/>
+      <c r="AO2" s="163"/>
+      <c r="AP2" s="163"/>
+      <c r="AQ2" s="164"/>
+      <c r="AW2" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="AX2" s="238"/>
-      <c r="AY2" s="238"/>
-      <c r="AZ2" s="254" t="s">
-        <v>21</v>
-      </c>
-      <c r="BA2" s="255"/>
-      <c r="BB2" s="255"/>
-      <c r="BC2" s="255"/>
-      <c r="BD2" s="243" t="s">
+      <c r="AX2" s="168"/>
+      <c r="AY2" s="168"/>
+      <c r="AZ2" s="169" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA2" s="170"/>
+      <c r="BB2" s="170"/>
+      <c r="BC2" s="170"/>
+      <c r="BD2" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="BE2" s="243"/>
-      <c r="BF2" s="243"/>
-      <c r="BG2" s="244" t="s">
-        <v>88</v>
-      </c>
-      <c r="BH2" s="242"/>
-      <c r="BI2" s="242"/>
-      <c r="BJ2" s="242"/>
+      <c r="BE2" s="156"/>
+      <c r="BF2" s="156"/>
+      <c r="BG2" s="157" t="s">
+        <v>82</v>
+      </c>
+      <c r="BH2" s="158"/>
+      <c r="BI2" s="158"/>
+      <c r="BJ2" s="158"/>
     </row>
     <row r="3" spans="2:75" ht="12.95" customHeight="1">
-      <c r="B3" s="256"/>
-      <c r="C3" s="256"/>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
-      <c r="F3" s="256"/>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="255"/>
-      <c r="M3" s="255"/>
-      <c r="N3" s="255"/>
-      <c r="O3" s="255"/>
-      <c r="P3" s="255"/>
-      <c r="Q3" s="255"/>
-      <c r="R3" s="255"/>
-      <c r="S3" s="255"/>
-      <c r="T3" s="255"/>
-      <c r="U3" s="245"/>
-      <c r="V3" s="246"/>
-      <c r="W3" s="246"/>
-      <c r="X3" s="246"/>
-      <c r="Y3" s="246"/>
-      <c r="Z3" s="246"/>
-      <c r="AA3" s="246"/>
-      <c r="AB3" s="246"/>
-      <c r="AC3" s="246"/>
-      <c r="AD3" s="246"/>
-      <c r="AE3" s="247"/>
-      <c r="AM3" s="251"/>
-      <c r="AN3" s="252"/>
-      <c r="AO3" s="252"/>
-      <c r="AP3" s="252"/>
-      <c r="AQ3" s="253"/>
-      <c r="AW3" s="238"/>
-      <c r="AX3" s="238"/>
-      <c r="AY3" s="238"/>
-      <c r="AZ3" s="255"/>
-      <c r="BA3" s="255"/>
-      <c r="BB3" s="255"/>
-      <c r="BC3" s="255"/>
-      <c r="BD3" s="243"/>
-      <c r="BE3" s="243"/>
-      <c r="BF3" s="243"/>
-      <c r="BG3" s="242"/>
-      <c r="BH3" s="242"/>
-      <c r="BI3" s="242"/>
-      <c r="BJ3" s="242"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="171"/>
+      <c r="L3" s="170"/>
+      <c r="M3" s="170"/>
+      <c r="N3" s="170"/>
+      <c r="O3" s="170"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="170"/>
+      <c r="S3" s="170"/>
+      <c r="T3" s="170"/>
+      <c r="U3" s="159"/>
+      <c r="V3" s="160"/>
+      <c r="W3" s="160"/>
+      <c r="X3" s="160"/>
+      <c r="Y3" s="160"/>
+      <c r="Z3" s="160"/>
+      <c r="AA3" s="160"/>
+      <c r="AB3" s="160"/>
+      <c r="AC3" s="160"/>
+      <c r="AD3" s="160"/>
+      <c r="AE3" s="161"/>
+      <c r="AM3" s="165"/>
+      <c r="AN3" s="166"/>
+      <c r="AO3" s="166"/>
+      <c r="AP3" s="166"/>
+      <c r="AQ3" s="167"/>
+      <c r="AW3" s="168"/>
+      <c r="AX3" s="168"/>
+      <c r="AY3" s="168"/>
+      <c r="AZ3" s="170"/>
+      <c r="BA3" s="170"/>
+      <c r="BB3" s="170"/>
+      <c r="BC3" s="170"/>
+      <c r="BD3" s="156"/>
+      <c r="BE3" s="156"/>
+      <c r="BF3" s="156"/>
+      <c r="BG3" s="158"/>
+      <c r="BH3" s="158"/>
+      <c r="BI3" s="158"/>
+      <c r="BJ3" s="158"/>
     </row>
     <row r="4" spans="2:75" ht="12.95" customHeight="1">
-      <c r="B4" s="256"/>
-      <c r="C4" s="256"/>
-      <c r="D4" s="256"/>
-      <c r="E4" s="256"/>
-      <c r="F4" s="256"/>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="256"/>
-      <c r="L4" s="255"/>
-      <c r="M4" s="255"/>
-      <c r="N4" s="255"/>
-      <c r="O4" s="255"/>
-      <c r="P4" s="255"/>
-      <c r="Q4" s="255"/>
-      <c r="R4" s="255"/>
-      <c r="S4" s="255"/>
-      <c r="T4" s="255"/>
-      <c r="U4" s="245" t="s">
-        <v>87</v>
-      </c>
-      <c r="V4" s="246"/>
-      <c r="W4" s="246"/>
-      <c r="X4" s="246"/>
-      <c r="Y4" s="246"/>
-      <c r="Z4" s="246"/>
-      <c r="AA4" s="246"/>
-      <c r="AB4" s="246"/>
-      <c r="AC4" s="246"/>
-      <c r="AD4" s="246"/>
-      <c r="AE4" s="247"/>
-      <c r="AM4" s="248" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN4" s="249"/>
-      <c r="AO4" s="249"/>
-      <c r="AP4" s="249"/>
-      <c r="AQ4" s="250"/>
-      <c r="AW4" s="238" t="s">
+      <c r="B4" s="171"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="171"/>
+      <c r="I4" s="171"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="171"/>
+      <c r="L4" s="170"/>
+      <c r="M4" s="170"/>
+      <c r="N4" s="170"/>
+      <c r="O4" s="170"/>
+      <c r="P4" s="170"/>
+      <c r="Q4" s="170"/>
+      <c r="R4" s="170"/>
+      <c r="S4" s="170"/>
+      <c r="T4" s="170"/>
+      <c r="U4" s="159" t="s">
+        <v>81</v>
+      </c>
+      <c r="V4" s="160"/>
+      <c r="W4" s="160"/>
+      <c r="X4" s="160"/>
+      <c r="Y4" s="160"/>
+      <c r="Z4" s="160"/>
+      <c r="AA4" s="160"/>
+      <c r="AB4" s="160"/>
+      <c r="AC4" s="160"/>
+      <c r="AD4" s="160"/>
+      <c r="AE4" s="161"/>
+      <c r="AM4" s="162" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN4" s="163"/>
+      <c r="AO4" s="163"/>
+      <c r="AP4" s="163"/>
+      <c r="AQ4" s="164"/>
+      <c r="AW4" s="168" t="s">
         <v>9</v>
       </c>
-      <c r="AX4" s="238"/>
-      <c r="AY4" s="238"/>
-      <c r="AZ4" s="254"/>
-      <c r="BA4" s="255"/>
-      <c r="BB4" s="255"/>
-      <c r="BC4" s="255"/>
-      <c r="BD4" s="238"/>
-      <c r="BE4" s="238"/>
-      <c r="BF4" s="238"/>
-      <c r="BG4" s="242"/>
-      <c r="BH4" s="242"/>
-      <c r="BI4" s="242"/>
-      <c r="BJ4" s="242"/>
+      <c r="AX4" s="168"/>
+      <c r="AY4" s="168"/>
+      <c r="AZ4" s="169"/>
+      <c r="BA4" s="170"/>
+      <c r="BB4" s="170"/>
+      <c r="BC4" s="170"/>
+      <c r="BD4" s="168"/>
+      <c r="BE4" s="168"/>
+      <c r="BF4" s="168"/>
+      <c r="BG4" s="158"/>
+      <c r="BH4" s="158"/>
+      <c r="BI4" s="158"/>
+      <c r="BJ4" s="158"/>
     </row>
     <row r="5" spans="2:75" ht="12.95" customHeight="1">
-      <c r="B5" s="256"/>
-      <c r="C5" s="256"/>
-      <c r="D5" s="256"/>
-      <c r="E5" s="256"/>
-      <c r="F5" s="256"/>
-      <c r="G5" s="256"/>
-      <c r="H5" s="256"/>
-      <c r="I5" s="256"/>
-      <c r="J5" s="256"/>
-      <c r="K5" s="256"/>
-      <c r="L5" s="255"/>
-      <c r="M5" s="255"/>
-      <c r="N5" s="255"/>
-      <c r="O5" s="255"/>
-      <c r="P5" s="255"/>
-      <c r="Q5" s="255"/>
-      <c r="R5" s="255"/>
-      <c r="S5" s="255"/>
-      <c r="T5" s="255"/>
-      <c r="U5" s="245"/>
-      <c r="V5" s="246"/>
-      <c r="W5" s="246"/>
-      <c r="X5" s="246"/>
-      <c r="Y5" s="246"/>
-      <c r="Z5" s="246"/>
-      <c r="AA5" s="246"/>
-      <c r="AB5" s="246"/>
-      <c r="AC5" s="246"/>
-      <c r="AD5" s="246"/>
-      <c r="AE5" s="247"/>
-      <c r="AM5" s="251"/>
-      <c r="AN5" s="252"/>
-      <c r="AO5" s="252"/>
-      <c r="AP5" s="252"/>
-      <c r="AQ5" s="253"/>
-      <c r="AW5" s="238"/>
-      <c r="AX5" s="238"/>
-      <c r="AY5" s="238"/>
-      <c r="AZ5" s="255"/>
-      <c r="BA5" s="255"/>
-      <c r="BB5" s="255"/>
-      <c r="BC5" s="255"/>
-      <c r="BD5" s="238"/>
-      <c r="BE5" s="238"/>
-      <c r="BF5" s="238"/>
-      <c r="BG5" s="242"/>
-      <c r="BH5" s="242"/>
-      <c r="BI5" s="242"/>
-      <c r="BJ5" s="242"/>
+      <c r="B5" s="171"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="171"/>
+      <c r="K5" s="171"/>
+      <c r="L5" s="170"/>
+      <c r="M5" s="170"/>
+      <c r="N5" s="170"/>
+      <c r="O5" s="170"/>
+      <c r="P5" s="170"/>
+      <c r="Q5" s="170"/>
+      <c r="R5" s="170"/>
+      <c r="S5" s="170"/>
+      <c r="T5" s="170"/>
+      <c r="U5" s="159"/>
+      <c r="V5" s="160"/>
+      <c r="W5" s="160"/>
+      <c r="X5" s="160"/>
+      <c r="Y5" s="160"/>
+      <c r="Z5" s="160"/>
+      <c r="AA5" s="160"/>
+      <c r="AB5" s="160"/>
+      <c r="AC5" s="160"/>
+      <c r="AD5" s="160"/>
+      <c r="AE5" s="161"/>
+      <c r="AM5" s="165"/>
+      <c r="AN5" s="166"/>
+      <c r="AO5" s="166"/>
+      <c r="AP5" s="166"/>
+      <c r="AQ5" s="167"/>
+      <c r="AW5" s="168"/>
+      <c r="AX5" s="168"/>
+      <c r="AY5" s="168"/>
+      <c r="AZ5" s="170"/>
+      <c r="BA5" s="170"/>
+      <c r="BB5" s="170"/>
+      <c r="BC5" s="170"/>
+      <c r="BD5" s="168"/>
+      <c r="BE5" s="168"/>
+      <c r="BF5" s="168"/>
+      <c r="BG5" s="158"/>
+      <c r="BH5" s="158"/>
+      <c r="BI5" s="158"/>
+      <c r="BJ5" s="158"/>
     </row>
     <row r="7" spans="2:75" ht="12.95" customHeight="1">
-      <c r="B7" s="238" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="238"/>
-      <c r="D7" s="239" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="240"/>
-      <c r="F7" s="240"/>
-      <c r="G7" s="240"/>
-      <c r="H7" s="240"/>
-      <c r="I7" s="241"/>
+      <c r="B7" s="168" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="168"/>
+      <c r="D7" s="185" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="186"/>
+      <c r="F7" s="186"/>
+      <c r="G7" s="186"/>
+      <c r="H7" s="186"/>
+      <c r="I7" s="187"/>
     </row>
     <row r="8" spans="2:75" ht="12.95" customHeight="1">
-      <c r="B8" s="238" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="238"/>
-      <c r="D8" s="242" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="242"/>
-      <c r="F8" s="242"/>
-      <c r="G8" s="242"/>
-      <c r="H8" s="242"/>
-      <c r="I8" s="242"/>
+      <c r="B8" s="168" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="168"/>
+      <c r="D8" s="158" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="158"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="158"/>
     </row>
     <row r="10" spans="2:75" ht="12.95" customHeight="1">
       <c r="B10" s="15"/>
       <c r="C10" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
@@ -10661,12 +10642,12 @@
       <c r="P13" s="52"/>
       <c r="Q13" s="53"/>
       <c r="R13" s="55" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S13" s="55"/>
       <c r="T13" s="56"/>
       <c r="U13" s="51" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="V13" s="52"/>
       <c r="W13" s="52"/>
@@ -10726,13 +10707,13 @@
     <row r="14" spans="2:75" ht="12.95" customHeight="1">
       <c r="B14" s="31"/>
       <c r="C14" s="50" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E14" s="51" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F14" s="52"/>
       <c r="G14" s="52"/>
@@ -10743,14 +10724,14 @@
       <c r="L14" s="51"/>
       <c r="M14" s="52"/>
       <c r="N14" s="51" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="O14" s="52"/>
       <c r="P14" s="52"/>
       <c r="Q14" s="53"/>
       <c r="R14" s="55"/>
       <c r="S14" s="55" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="T14" s="56"/>
       <c r="U14" s="51"/>
@@ -10759,7 +10740,7 @@
       <c r="X14" s="52"/>
       <c r="Y14" s="54"/>
       <c r="Z14" s="51" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AA14" s="52"/>
       <c r="AB14" s="52"/>
@@ -10774,7 +10755,7 @@
       <c r="AK14" s="53"/>
       <c r="AL14" s="57"/>
       <c r="AM14" s="58" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="AN14" s="59"/>
       <c r="AO14" s="59"/>
@@ -10786,21 +10767,21 @@
       <c r="AU14" s="59"/>
       <c r="AV14" s="60"/>
       <c r="AW14" s="58" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AX14" s="59"/>
       <c r="AY14" s="59"/>
       <c r="AZ14" s="59"/>
       <c r="BA14" s="60"/>
       <c r="BB14" s="58" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="BC14" s="59"/>
       <c r="BD14" s="59"/>
       <c r="BE14" s="59"/>
       <c r="BF14" s="59"/>
       <c r="BG14" s="61" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="BH14" s="62"/>
       <c r="BI14" s="62"/>
@@ -10858,28 +10839,28 @@
       <c r="AK15" s="38"/>
       <c r="AL15" s="39"/>
       <c r="AM15" s="40" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="AN15" s="41"/>
       <c r="AO15" s="41"/>
       <c r="AP15" s="41"/>
       <c r="AQ15" s="42"/>
       <c r="AR15" s="40" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AS15" s="41"/>
       <c r="AT15" s="41"/>
       <c r="AU15" s="41"/>
       <c r="AV15" s="42"/>
       <c r="AW15" s="40" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="AX15" s="41"/>
       <c r="AY15" s="41"/>
       <c r="AZ15" s="41"/>
       <c r="BA15" s="42"/>
       <c r="BB15" s="40" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="BC15" s="41"/>
       <c r="BD15" s="41"/>
@@ -10905,16 +10886,16 @@
     </row>
     <row r="16" spans="2:75" ht="12.95" customHeight="1">
       <c r="B16" s="31" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F16" s="47"/>
       <c r="G16" s="47"/>
@@ -10923,31 +10904,31 @@
       <c r="J16" s="38"/>
       <c r="K16" s="48"/>
       <c r="L16" s="46" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="M16" s="47"/>
       <c r="N16" s="46" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="O16" s="47"/>
       <c r="P16" s="47"/>
       <c r="Q16" s="38"/>
       <c r="R16" s="43" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="S16" s="43" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="T16" s="37"/>
       <c r="U16" s="46" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="V16" s="47"/>
       <c r="W16" s="47"/>
       <c r="X16" s="47"/>
       <c r="Y16" s="48"/>
       <c r="Z16" s="46" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="AA16" s="47"/>
       <c r="AB16" s="47"/>
@@ -10955,7 +10936,7 @@
       <c r="AD16" s="47"/>
       <c r="AE16" s="48"/>
       <c r="AF16" s="32" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AG16" s="38"/>
       <c r="AH16" s="38"/>
@@ -10964,35 +10945,35 @@
       <c r="AK16" s="38"/>
       <c r="AL16" s="39"/>
       <c r="AM16" s="32" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AN16" s="63"/>
       <c r="AO16" s="63"/>
       <c r="AP16" s="63"/>
       <c r="AQ16" s="64"/>
       <c r="AR16" s="32" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="AS16" s="63"/>
       <c r="AT16" s="63"/>
       <c r="AU16" s="63"/>
       <c r="AV16" s="64"/>
       <c r="AW16" s="32" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="AX16" s="63"/>
       <c r="AY16" s="63"/>
       <c r="AZ16" s="63"/>
       <c r="BA16" s="64"/>
       <c r="BB16" s="32" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="BC16" s="63"/>
       <c r="BD16" s="63"/>
       <c r="BE16" s="63"/>
       <c r="BF16" s="63"/>
       <c r="BG16" s="43" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="BH16" s="44"/>
       <c r="BI16" s="44"/>
@@ -11002,18 +10983,18 @@
       <c r="BM16" s="45"/>
       <c r="BN16" s="32"/>
       <c r="BO16" s="63" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="BP16" s="63"/>
       <c r="BQ16" s="63"/>
       <c r="BR16" s="64"/>
       <c r="BS16" s="32"/>
       <c r="BT16" s="63" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="BU16" s="63"/>
       <c r="BV16" s="63" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="BW16" s="64"/>
     </row>
@@ -11099,89 +11080,89 @@
       </c>
       <c r="C18" s="74"/>
       <c r="D18" s="74"/>
-      <c r="E18" s="173" t="s">
+      <c r="E18" s="180" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="174"/>
-      <c r="G18" s="174"/>
-      <c r="H18" s="174"/>
-      <c r="I18" s="174"/>
-      <c r="J18" s="174"/>
-      <c r="K18" s="175"/>
-      <c r="L18" s="171" t="s">
-        <v>59</v>
-      </c>
-      <c r="M18" s="172"/>
-      <c r="N18" s="231" t="s">
-        <v>61</v>
-      </c>
-      <c r="O18" s="174"/>
-      <c r="P18" s="174"/>
-      <c r="Q18" s="175"/>
+      <c r="F18" s="176"/>
+      <c r="G18" s="176"/>
+      <c r="H18" s="176"/>
+      <c r="I18" s="176"/>
+      <c r="J18" s="176"/>
+      <c r="K18" s="177"/>
+      <c r="L18" s="255" t="s">
+        <v>53</v>
+      </c>
+      <c r="M18" s="256"/>
+      <c r="N18" s="175" t="s">
+        <v>55</v>
+      </c>
+      <c r="O18" s="176"/>
+      <c r="P18" s="176"/>
+      <c r="Q18" s="177"/>
       <c r="R18" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="S18" s="232"/>
-      <c r="T18" s="233"/>
-      <c r="U18" s="173"/>
-      <c r="V18" s="174"/>
-      <c r="W18" s="174"/>
-      <c r="X18" s="174"/>
-      <c r="Y18" s="175"/>
-      <c r="Z18" s="231"/>
-      <c r="AA18" s="174"/>
-      <c r="AB18" s="174"/>
-      <c r="AC18" s="174"/>
-      <c r="AD18" s="174"/>
-      <c r="AE18" s="234"/>
-      <c r="AF18" s="173"/>
-      <c r="AG18" s="174"/>
-      <c r="AH18" s="174"/>
-      <c r="AI18" s="174"/>
-      <c r="AJ18" s="174"/>
-      <c r="AK18" s="174"/>
-      <c r="AL18" s="234"/>
-      <c r="AM18" s="235"/>
-      <c r="AN18" s="236"/>
-      <c r="AO18" s="236"/>
-      <c r="AP18" s="236"/>
-      <c r="AQ18" s="237"/>
-      <c r="AR18" s="228"/>
-      <c r="AS18" s="229"/>
-      <c r="AT18" s="229"/>
-      <c r="AU18" s="229"/>
-      <c r="AV18" s="230"/>
-      <c r="AW18" s="222"/>
-      <c r="AX18" s="223"/>
-      <c r="AY18" s="223"/>
-      <c r="AZ18" s="223"/>
-      <c r="BA18" s="224"/>
-      <c r="BB18" s="222"/>
-      <c r="BC18" s="223"/>
-      <c r="BD18" s="223"/>
-      <c r="BE18" s="223"/>
-      <c r="BF18" s="224"/>
-      <c r="BG18" s="168" t="s">
-        <v>70</v>
-      </c>
-      <c r="BH18" s="169"/>
-      <c r="BI18" s="169"/>
-      <c r="BJ18" s="169"/>
-      <c r="BK18" s="169"/>
-      <c r="BL18" s="169"/>
-      <c r="BM18" s="170"/>
-      <c r="BN18" s="222"/>
-      <c r="BO18" s="223"/>
-      <c r="BP18" s="223"/>
-      <c r="BQ18" s="223"/>
-      <c r="BR18" s="224"/>
-      <c r="BS18" s="222">
+        <v>54</v>
+      </c>
+      <c r="S18" s="178"/>
+      <c r="T18" s="179"/>
+      <c r="U18" s="180"/>
+      <c r="V18" s="176"/>
+      <c r="W18" s="176"/>
+      <c r="X18" s="176"/>
+      <c r="Y18" s="177"/>
+      <c r="Z18" s="175"/>
+      <c r="AA18" s="176"/>
+      <c r="AB18" s="176"/>
+      <c r="AC18" s="176"/>
+      <c r="AD18" s="176"/>
+      <c r="AE18" s="181"/>
+      <c r="AF18" s="180"/>
+      <c r="AG18" s="176"/>
+      <c r="AH18" s="176"/>
+      <c r="AI18" s="176"/>
+      <c r="AJ18" s="176"/>
+      <c r="AK18" s="176"/>
+      <c r="AL18" s="181"/>
+      <c r="AM18" s="182"/>
+      <c r="AN18" s="183"/>
+      <c r="AO18" s="183"/>
+      <c r="AP18" s="183"/>
+      <c r="AQ18" s="184"/>
+      <c r="AR18" s="195"/>
+      <c r="AS18" s="196"/>
+      <c r="AT18" s="196"/>
+      <c r="AU18" s="196"/>
+      <c r="AV18" s="197"/>
+      <c r="AW18" s="172"/>
+      <c r="AX18" s="173"/>
+      <c r="AY18" s="173"/>
+      <c r="AZ18" s="173"/>
+      <c r="BA18" s="174"/>
+      <c r="BB18" s="172"/>
+      <c r="BC18" s="173"/>
+      <c r="BD18" s="173"/>
+      <c r="BE18" s="173"/>
+      <c r="BF18" s="174"/>
+      <c r="BG18" s="198" t="s">
+        <v>64</v>
+      </c>
+      <c r="BH18" s="199"/>
+      <c r="BI18" s="199"/>
+      <c r="BJ18" s="199"/>
+      <c r="BK18" s="199"/>
+      <c r="BL18" s="199"/>
+      <c r="BM18" s="200"/>
+      <c r="BN18" s="172"/>
+      <c r="BO18" s="173"/>
+      <c r="BP18" s="173"/>
+      <c r="BQ18" s="173"/>
+      <c r="BR18" s="174"/>
+      <c r="BS18" s="172">
         <v>1</v>
       </c>
-      <c r="BT18" s="223"/>
-      <c r="BU18" s="223"/>
-      <c r="BV18" s="223"/>
-      <c r="BW18" s="224"/>
+      <c r="BT18" s="173"/>
+      <c r="BU18" s="173"/>
+      <c r="BV18" s="173"/>
+      <c r="BW18" s="174"/>
       <c r="BX18" s="14"/>
       <c r="BY18" s="14"/>
     </row>
@@ -11192,93 +11173,93 @@
       </c>
       <c r="C19" s="78"/>
       <c r="D19" s="78"/>
-      <c r="E19" s="185" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="183"/>
-      <c r="G19" s="183"/>
-      <c r="H19" s="183"/>
-      <c r="I19" s="183"/>
-      <c r="J19" s="183"/>
-      <c r="K19" s="184"/>
-      <c r="L19" s="179" t="s">
-        <v>59</v>
-      </c>
-      <c r="M19" s="180"/>
-      <c r="N19" s="182" t="s">
-        <v>63</v>
-      </c>
-      <c r="O19" s="183"/>
-      <c r="P19" s="183"/>
-      <c r="Q19" s="184"/>
+      <c r="E19" s="193" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="189"/>
+      <c r="G19" s="189"/>
+      <c r="H19" s="189"/>
+      <c r="I19" s="189"/>
+      <c r="J19" s="189"/>
+      <c r="K19" s="190"/>
+      <c r="L19" s="207" t="s">
+        <v>53</v>
+      </c>
+      <c r="M19" s="208"/>
+      <c r="N19" s="188" t="s">
+        <v>57</v>
+      </c>
+      <c r="O19" s="189"/>
+      <c r="P19" s="189"/>
+      <c r="Q19" s="190"/>
       <c r="R19" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="S19" s="158">
+        <v>54</v>
+      </c>
+      <c r="S19" s="191">
         <v>20</v>
       </c>
-      <c r="T19" s="159"/>
-      <c r="U19" s="185" t="s">
+      <c r="T19" s="192"/>
+      <c r="U19" s="193" t="s">
+        <v>58</v>
+      </c>
+      <c r="V19" s="189"/>
+      <c r="W19" s="189"/>
+      <c r="X19" s="189"/>
+      <c r="Y19" s="190"/>
+      <c r="Z19" s="188"/>
+      <c r="AA19" s="189"/>
+      <c r="AB19" s="189"/>
+      <c r="AC19" s="189"/>
+      <c r="AD19" s="189"/>
+      <c r="AE19" s="194"/>
+      <c r="AF19" s="193"/>
+      <c r="AG19" s="189"/>
+      <c r="AH19" s="189"/>
+      <c r="AI19" s="189"/>
+      <c r="AJ19" s="189"/>
+      <c r="AK19" s="189"/>
+      <c r="AL19" s="194"/>
+      <c r="AM19" s="209"/>
+      <c r="AN19" s="210"/>
+      <c r="AO19" s="210"/>
+      <c r="AP19" s="210"/>
+      <c r="AQ19" s="211"/>
+      <c r="AR19" s="201"/>
+      <c r="AS19" s="202"/>
+      <c r="AT19" s="202"/>
+      <c r="AU19" s="202"/>
+      <c r="AV19" s="203"/>
+      <c r="AW19" s="204"/>
+      <c r="AX19" s="205"/>
+      <c r="AY19" s="205"/>
+      <c r="AZ19" s="205"/>
+      <c r="BA19" s="206"/>
+      <c r="BB19" s="201"/>
+      <c r="BC19" s="202"/>
+      <c r="BD19" s="202"/>
+      <c r="BE19" s="202"/>
+      <c r="BF19" s="203"/>
+      <c r="BG19" s="198" t="s">
         <v>64</v>
       </c>
-      <c r="V19" s="183"/>
-      <c r="W19" s="183"/>
-      <c r="X19" s="183"/>
-      <c r="Y19" s="184"/>
-      <c r="Z19" s="182"/>
-      <c r="AA19" s="183"/>
-      <c r="AB19" s="183"/>
-      <c r="AC19" s="183"/>
-      <c r="AD19" s="183"/>
-      <c r="AE19" s="186"/>
-      <c r="AF19" s="185"/>
-      <c r="AG19" s="183"/>
-      <c r="AH19" s="183"/>
-      <c r="AI19" s="183"/>
-      <c r="AJ19" s="183"/>
-      <c r="AK19" s="183"/>
-      <c r="AL19" s="186"/>
-      <c r="AM19" s="218"/>
-      <c r="AN19" s="219"/>
-      <c r="AO19" s="219"/>
-      <c r="AP19" s="219"/>
-      <c r="AQ19" s="220"/>
-      <c r="AR19" s="187"/>
-      <c r="AS19" s="188"/>
-      <c r="AT19" s="188"/>
-      <c r="AU19" s="188"/>
-      <c r="AV19" s="189"/>
-      <c r="AW19" s="190"/>
-      <c r="AX19" s="191"/>
-      <c r="AY19" s="191"/>
-      <c r="AZ19" s="191"/>
-      <c r="BA19" s="192"/>
-      <c r="BB19" s="187"/>
-      <c r="BC19" s="188"/>
-      <c r="BD19" s="188"/>
-      <c r="BE19" s="188"/>
-      <c r="BF19" s="189"/>
-      <c r="BG19" s="168" t="s">
-        <v>70</v>
-      </c>
-      <c r="BH19" s="169"/>
-      <c r="BI19" s="169"/>
-      <c r="BJ19" s="169"/>
-      <c r="BK19" s="169"/>
-      <c r="BL19" s="169"/>
-      <c r="BM19" s="170"/>
-      <c r="BN19" s="190"/>
-      <c r="BO19" s="191"/>
-      <c r="BP19" s="191"/>
-      <c r="BQ19" s="191"/>
-      <c r="BR19" s="192"/>
-      <c r="BS19" s="222">
+      <c r="BH19" s="199"/>
+      <c r="BI19" s="199"/>
+      <c r="BJ19" s="199"/>
+      <c r="BK19" s="199"/>
+      <c r="BL19" s="199"/>
+      <c r="BM19" s="200"/>
+      <c r="BN19" s="204"/>
+      <c r="BO19" s="205"/>
+      <c r="BP19" s="205"/>
+      <c r="BQ19" s="205"/>
+      <c r="BR19" s="206"/>
+      <c r="BS19" s="172">
         <v>2</v>
       </c>
-      <c r="BT19" s="223"/>
-      <c r="BU19" s="223"/>
-      <c r="BV19" s="223"/>
-      <c r="BW19" s="224"/>
+      <c r="BT19" s="173"/>
+      <c r="BU19" s="173"/>
+      <c r="BV19" s="173"/>
+      <c r="BW19" s="174"/>
       <c r="BX19" s="14"/>
       <c r="BY19" s="14"/>
     </row>
@@ -11289,93 +11270,93 @@
       </c>
       <c r="C20" s="78"/>
       <c r="D20" s="78"/>
-      <c r="E20" s="185" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="183"/>
-      <c r="G20" s="183"/>
-      <c r="H20" s="183"/>
-      <c r="I20" s="183"/>
-      <c r="J20" s="183"/>
-      <c r="K20" s="184"/>
-      <c r="L20" s="179" t="s">
+      <c r="E20" s="193" t="s">
         <v>59</v>
       </c>
-      <c r="M20" s="180"/>
-      <c r="N20" s="182" t="s">
-        <v>61</v>
-      </c>
-      <c r="O20" s="183"/>
-      <c r="P20" s="183"/>
-      <c r="Q20" s="184"/>
+      <c r="F20" s="189"/>
+      <c r="G20" s="189"/>
+      <c r="H20" s="189"/>
+      <c r="I20" s="189"/>
+      <c r="J20" s="189"/>
+      <c r="K20" s="190"/>
+      <c r="L20" s="207" t="s">
+        <v>53</v>
+      </c>
+      <c r="M20" s="208"/>
+      <c r="N20" s="188" t="s">
+        <v>55</v>
+      </c>
+      <c r="O20" s="189"/>
+      <c r="P20" s="189"/>
+      <c r="Q20" s="190"/>
       <c r="R20" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="S20" s="158">
+        <v>54</v>
+      </c>
+      <c r="S20" s="191">
         <v>20</v>
       </c>
-      <c r="T20" s="159"/>
-      <c r="U20" s="185" t="s">
+      <c r="T20" s="192"/>
+      <c r="U20" s="193" t="s">
+        <v>58</v>
+      </c>
+      <c r="V20" s="189"/>
+      <c r="W20" s="189"/>
+      <c r="X20" s="189"/>
+      <c r="Y20" s="190"/>
+      <c r="Z20" s="188"/>
+      <c r="AA20" s="189"/>
+      <c r="AB20" s="189"/>
+      <c r="AC20" s="189"/>
+      <c r="AD20" s="189"/>
+      <c r="AE20" s="194"/>
+      <c r="AF20" s="201"/>
+      <c r="AG20" s="202"/>
+      <c r="AH20" s="202"/>
+      <c r="AI20" s="202"/>
+      <c r="AJ20" s="202"/>
+      <c r="AK20" s="202"/>
+      <c r="AL20" s="203"/>
+      <c r="AM20" s="209"/>
+      <c r="AN20" s="210"/>
+      <c r="AO20" s="210"/>
+      <c r="AP20" s="210"/>
+      <c r="AQ20" s="211"/>
+      <c r="AR20" s="201"/>
+      <c r="AS20" s="202"/>
+      <c r="AT20" s="202"/>
+      <c r="AU20" s="202"/>
+      <c r="AV20" s="203"/>
+      <c r="AW20" s="201"/>
+      <c r="AX20" s="202"/>
+      <c r="AY20" s="202"/>
+      <c r="AZ20" s="202"/>
+      <c r="BA20" s="203"/>
+      <c r="BB20" s="201"/>
+      <c r="BC20" s="202"/>
+      <c r="BD20" s="202"/>
+      <c r="BE20" s="202"/>
+      <c r="BF20" s="203"/>
+      <c r="BG20" s="198" t="s">
         <v>64</v>
       </c>
-      <c r="V20" s="183"/>
-      <c r="W20" s="183"/>
-      <c r="X20" s="183"/>
-      <c r="Y20" s="184"/>
-      <c r="Z20" s="182"/>
-      <c r="AA20" s="183"/>
-      <c r="AB20" s="183"/>
-      <c r="AC20" s="183"/>
-      <c r="AD20" s="183"/>
-      <c r="AE20" s="186"/>
-      <c r="AF20" s="187"/>
-      <c r="AG20" s="188"/>
-      <c r="AH20" s="188"/>
-      <c r="AI20" s="188"/>
-      <c r="AJ20" s="188"/>
-      <c r="AK20" s="188"/>
-      <c r="AL20" s="189"/>
-      <c r="AM20" s="218"/>
-      <c r="AN20" s="219"/>
-      <c r="AO20" s="219"/>
-      <c r="AP20" s="219"/>
-      <c r="AQ20" s="220"/>
-      <c r="AR20" s="187"/>
-      <c r="AS20" s="188"/>
-      <c r="AT20" s="188"/>
-      <c r="AU20" s="188"/>
-      <c r="AV20" s="189"/>
-      <c r="AW20" s="187"/>
-      <c r="AX20" s="188"/>
-      <c r="AY20" s="188"/>
-      <c r="AZ20" s="188"/>
-      <c r="BA20" s="189"/>
-      <c r="BB20" s="187"/>
-      <c r="BC20" s="188"/>
-      <c r="BD20" s="188"/>
-      <c r="BE20" s="188"/>
-      <c r="BF20" s="189"/>
-      <c r="BG20" s="168" t="s">
-        <v>70</v>
-      </c>
-      <c r="BH20" s="169"/>
-      <c r="BI20" s="169"/>
-      <c r="BJ20" s="169"/>
-      <c r="BK20" s="169"/>
-      <c r="BL20" s="169"/>
-      <c r="BM20" s="170"/>
-      <c r="BN20" s="187"/>
-      <c r="BO20" s="188"/>
-      <c r="BP20" s="188"/>
-      <c r="BQ20" s="188"/>
-      <c r="BR20" s="189"/>
-      <c r="BS20" s="222">
+      <c r="BH20" s="199"/>
+      <c r="BI20" s="199"/>
+      <c r="BJ20" s="199"/>
+      <c r="BK20" s="199"/>
+      <c r="BL20" s="199"/>
+      <c r="BM20" s="200"/>
+      <c r="BN20" s="201"/>
+      <c r="BO20" s="202"/>
+      <c r="BP20" s="202"/>
+      <c r="BQ20" s="202"/>
+      <c r="BR20" s="203"/>
+      <c r="BS20" s="172">
         <v>3</v>
       </c>
-      <c r="BT20" s="223"/>
-      <c r="BU20" s="223"/>
-      <c r="BV20" s="223"/>
-      <c r="BW20" s="224"/>
+      <c r="BT20" s="173"/>
+      <c r="BU20" s="173"/>
+      <c r="BV20" s="173"/>
+      <c r="BW20" s="174"/>
       <c r="BX20" s="14"/>
       <c r="BY20" s="14"/>
     </row>
@@ -11386,93 +11367,93 @@
       </c>
       <c r="C21" s="78"/>
       <c r="D21" s="78"/>
-      <c r="E21" s="185" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="183"/>
-      <c r="G21" s="183"/>
-      <c r="H21" s="183"/>
-      <c r="I21" s="183"/>
-      <c r="J21" s="183"/>
-      <c r="K21" s="184"/>
-      <c r="L21" s="179" t="s">
-        <v>59</v>
-      </c>
-      <c r="M21" s="180"/>
-      <c r="N21" s="182" t="s">
-        <v>61</v>
-      </c>
-      <c r="O21" s="183"/>
-      <c r="P21" s="183"/>
-      <c r="Q21" s="184"/>
+      <c r="E21" s="193" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="189"/>
+      <c r="G21" s="189"/>
+      <c r="H21" s="189"/>
+      <c r="I21" s="189"/>
+      <c r="J21" s="189"/>
+      <c r="K21" s="190"/>
+      <c r="L21" s="207" t="s">
+        <v>53</v>
+      </c>
+      <c r="M21" s="208"/>
+      <c r="N21" s="188" t="s">
+        <v>55</v>
+      </c>
+      <c r="O21" s="189"/>
+      <c r="P21" s="189"/>
+      <c r="Q21" s="190"/>
       <c r="R21" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="S21" s="158">
+        <v>54</v>
+      </c>
+      <c r="S21" s="191">
         <v>20</v>
       </c>
-      <c r="T21" s="159"/>
-      <c r="U21" s="185" t="s">
+      <c r="T21" s="192"/>
+      <c r="U21" s="193" t="s">
+        <v>58</v>
+      </c>
+      <c r="V21" s="189"/>
+      <c r="W21" s="189"/>
+      <c r="X21" s="189"/>
+      <c r="Y21" s="190"/>
+      <c r="Z21" s="188"/>
+      <c r="AA21" s="189"/>
+      <c r="AB21" s="189"/>
+      <c r="AC21" s="189"/>
+      <c r="AD21" s="189"/>
+      <c r="AE21" s="194"/>
+      <c r="AF21" s="193"/>
+      <c r="AG21" s="189"/>
+      <c r="AH21" s="189"/>
+      <c r="AI21" s="189"/>
+      <c r="AJ21" s="189"/>
+      <c r="AK21" s="189"/>
+      <c r="AL21" s="194"/>
+      <c r="AM21" s="209"/>
+      <c r="AN21" s="210"/>
+      <c r="AO21" s="210"/>
+      <c r="AP21" s="210"/>
+      <c r="AQ21" s="211"/>
+      <c r="AR21" s="201"/>
+      <c r="AS21" s="202"/>
+      <c r="AT21" s="202"/>
+      <c r="AU21" s="202"/>
+      <c r="AV21" s="203"/>
+      <c r="AW21" s="204"/>
+      <c r="AX21" s="205"/>
+      <c r="AY21" s="205"/>
+      <c r="AZ21" s="205"/>
+      <c r="BA21" s="206"/>
+      <c r="BB21" s="204"/>
+      <c r="BC21" s="205"/>
+      <c r="BD21" s="205"/>
+      <c r="BE21" s="205"/>
+      <c r="BF21" s="206"/>
+      <c r="BG21" s="198" t="s">
         <v>64</v>
       </c>
-      <c r="V21" s="183"/>
-      <c r="W21" s="183"/>
-      <c r="X21" s="183"/>
-      <c r="Y21" s="184"/>
-      <c r="Z21" s="182"/>
-      <c r="AA21" s="183"/>
-      <c r="AB21" s="183"/>
-      <c r="AC21" s="183"/>
-      <c r="AD21" s="183"/>
-      <c r="AE21" s="186"/>
-      <c r="AF21" s="185"/>
-      <c r="AG21" s="183"/>
-      <c r="AH21" s="183"/>
-      <c r="AI21" s="183"/>
-      <c r="AJ21" s="183"/>
-      <c r="AK21" s="183"/>
-      <c r="AL21" s="186"/>
-      <c r="AM21" s="218"/>
-      <c r="AN21" s="219"/>
-      <c r="AO21" s="219"/>
-      <c r="AP21" s="219"/>
-      <c r="AQ21" s="220"/>
-      <c r="AR21" s="187"/>
-      <c r="AS21" s="188"/>
-      <c r="AT21" s="188"/>
-      <c r="AU21" s="188"/>
-      <c r="AV21" s="189"/>
-      <c r="AW21" s="190"/>
-      <c r="AX21" s="191"/>
-      <c r="AY21" s="191"/>
-      <c r="AZ21" s="191"/>
-      <c r="BA21" s="192"/>
-      <c r="BB21" s="190"/>
-      <c r="BC21" s="191"/>
-      <c r="BD21" s="191"/>
-      <c r="BE21" s="191"/>
-      <c r="BF21" s="192"/>
-      <c r="BG21" s="168" t="s">
-        <v>70</v>
-      </c>
-      <c r="BH21" s="169"/>
-      <c r="BI21" s="169"/>
-      <c r="BJ21" s="169"/>
-      <c r="BK21" s="169"/>
-      <c r="BL21" s="169"/>
-      <c r="BM21" s="170"/>
-      <c r="BN21" s="190"/>
-      <c r="BO21" s="191"/>
-      <c r="BP21" s="191"/>
-      <c r="BQ21" s="191"/>
-      <c r="BR21" s="192"/>
-      <c r="BS21" s="222">
+      <c r="BH21" s="199"/>
+      <c r="BI21" s="199"/>
+      <c r="BJ21" s="199"/>
+      <c r="BK21" s="199"/>
+      <c r="BL21" s="199"/>
+      <c r="BM21" s="200"/>
+      <c r="BN21" s="204"/>
+      <c r="BO21" s="205"/>
+      <c r="BP21" s="205"/>
+      <c r="BQ21" s="205"/>
+      <c r="BR21" s="206"/>
+      <c r="BS21" s="172">
         <v>4</v>
       </c>
-      <c r="BT21" s="223"/>
-      <c r="BU21" s="223"/>
-      <c r="BV21" s="223"/>
-      <c r="BW21" s="224"/>
+      <c r="BT21" s="173"/>
+      <c r="BU21" s="173"/>
+      <c r="BV21" s="173"/>
+      <c r="BW21" s="174"/>
       <c r="BX21" s="14"/>
       <c r="BY21" s="14"/>
     </row>
@@ -11483,93 +11464,93 @@
       </c>
       <c r="C22" s="78"/>
       <c r="D22" s="78"/>
-      <c r="E22" s="185" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="183"/>
-      <c r="G22" s="183"/>
-      <c r="H22" s="183"/>
-      <c r="I22" s="183"/>
-      <c r="J22" s="183"/>
-      <c r="K22" s="184"/>
-      <c r="L22" s="179" t="s">
-        <v>59</v>
-      </c>
-      <c r="M22" s="180"/>
-      <c r="N22" s="182" t="s">
+      <c r="E22" s="193" t="s">
         <v>61</v>
       </c>
-      <c r="O22" s="183"/>
-      <c r="P22" s="183"/>
-      <c r="Q22" s="184"/>
+      <c r="F22" s="189"/>
+      <c r="G22" s="189"/>
+      <c r="H22" s="189"/>
+      <c r="I22" s="189"/>
+      <c r="J22" s="189"/>
+      <c r="K22" s="190"/>
+      <c r="L22" s="207" t="s">
+        <v>53</v>
+      </c>
+      <c r="M22" s="208"/>
+      <c r="N22" s="188" t="s">
+        <v>55</v>
+      </c>
+      <c r="O22" s="189"/>
+      <c r="P22" s="189"/>
+      <c r="Q22" s="190"/>
       <c r="R22" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="S22" s="158">
+        <v>54</v>
+      </c>
+      <c r="S22" s="191">
         <v>20</v>
       </c>
-      <c r="T22" s="159"/>
-      <c r="U22" s="185" t="s">
+      <c r="T22" s="192"/>
+      <c r="U22" s="193" t="s">
+        <v>58</v>
+      </c>
+      <c r="V22" s="189"/>
+      <c r="W22" s="189"/>
+      <c r="X22" s="189"/>
+      <c r="Y22" s="190"/>
+      <c r="Z22" s="188"/>
+      <c r="AA22" s="189"/>
+      <c r="AB22" s="189"/>
+      <c r="AC22" s="189"/>
+      <c r="AD22" s="189"/>
+      <c r="AE22" s="194"/>
+      <c r="AF22" s="193"/>
+      <c r="AG22" s="189"/>
+      <c r="AH22" s="189"/>
+      <c r="AI22" s="189"/>
+      <c r="AJ22" s="189"/>
+      <c r="AK22" s="189"/>
+      <c r="AL22" s="194"/>
+      <c r="AM22" s="209"/>
+      <c r="AN22" s="210"/>
+      <c r="AO22" s="210"/>
+      <c r="AP22" s="210"/>
+      <c r="AQ22" s="211"/>
+      <c r="AR22" s="201"/>
+      <c r="AS22" s="202"/>
+      <c r="AT22" s="202"/>
+      <c r="AU22" s="202"/>
+      <c r="AV22" s="203"/>
+      <c r="AW22" s="204"/>
+      <c r="AX22" s="205"/>
+      <c r="AY22" s="205"/>
+      <c r="AZ22" s="205"/>
+      <c r="BA22" s="206"/>
+      <c r="BB22" s="204"/>
+      <c r="BC22" s="205"/>
+      <c r="BD22" s="205"/>
+      <c r="BE22" s="205"/>
+      <c r="BF22" s="206"/>
+      <c r="BG22" s="198" t="s">
         <v>64</v>
       </c>
-      <c r="V22" s="183"/>
-      <c r="W22" s="183"/>
-      <c r="X22" s="183"/>
-      <c r="Y22" s="184"/>
-      <c r="Z22" s="182"/>
-      <c r="AA22" s="183"/>
-      <c r="AB22" s="183"/>
-      <c r="AC22" s="183"/>
-      <c r="AD22" s="183"/>
-      <c r="AE22" s="186"/>
-      <c r="AF22" s="185"/>
-      <c r="AG22" s="183"/>
-      <c r="AH22" s="183"/>
-      <c r="AI22" s="183"/>
-      <c r="AJ22" s="183"/>
-      <c r="AK22" s="183"/>
-      <c r="AL22" s="186"/>
-      <c r="AM22" s="218"/>
-      <c r="AN22" s="219"/>
-      <c r="AO22" s="219"/>
-      <c r="AP22" s="219"/>
-      <c r="AQ22" s="220"/>
-      <c r="AR22" s="187"/>
-      <c r="AS22" s="188"/>
-      <c r="AT22" s="188"/>
-      <c r="AU22" s="188"/>
-      <c r="AV22" s="189"/>
-      <c r="AW22" s="190"/>
-      <c r="AX22" s="191"/>
-      <c r="AY22" s="191"/>
-      <c r="AZ22" s="191"/>
-      <c r="BA22" s="192"/>
-      <c r="BB22" s="190"/>
-      <c r="BC22" s="191"/>
-      <c r="BD22" s="191"/>
-      <c r="BE22" s="191"/>
-      <c r="BF22" s="192"/>
-      <c r="BG22" s="168" t="s">
-        <v>70</v>
-      </c>
-      <c r="BH22" s="169"/>
-      <c r="BI22" s="169"/>
-      <c r="BJ22" s="169"/>
-      <c r="BK22" s="169"/>
-      <c r="BL22" s="169"/>
-      <c r="BM22" s="170"/>
-      <c r="BN22" s="190"/>
-      <c r="BO22" s="191"/>
-      <c r="BP22" s="191"/>
-      <c r="BQ22" s="191"/>
-      <c r="BR22" s="192"/>
-      <c r="BS22" s="222">
+      <c r="BH22" s="199"/>
+      <c r="BI22" s="199"/>
+      <c r="BJ22" s="199"/>
+      <c r="BK22" s="199"/>
+      <c r="BL22" s="199"/>
+      <c r="BM22" s="200"/>
+      <c r="BN22" s="204"/>
+      <c r="BO22" s="205"/>
+      <c r="BP22" s="205"/>
+      <c r="BQ22" s="205"/>
+      <c r="BR22" s="206"/>
+      <c r="BS22" s="172">
         <v>5</v>
       </c>
-      <c r="BT22" s="223"/>
-      <c r="BU22" s="223"/>
-      <c r="BV22" s="223"/>
-      <c r="BW22" s="224"/>
+      <c r="BT22" s="173"/>
+      <c r="BU22" s="173"/>
+      <c r="BV22" s="173"/>
+      <c r="BW22" s="174"/>
       <c r="BX22" s="14"/>
       <c r="BY22" s="14"/>
     </row>
@@ -11580,93 +11561,93 @@
       </c>
       <c r="C23" s="78"/>
       <c r="D23" s="78"/>
-      <c r="E23" s="185" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="183"/>
-      <c r="G23" s="183"/>
-      <c r="H23" s="183"/>
-      <c r="I23" s="183"/>
-      <c r="J23" s="183"/>
-      <c r="K23" s="184"/>
-      <c r="L23" s="179" t="s">
-        <v>59</v>
-      </c>
-      <c r="M23" s="180"/>
-      <c r="N23" s="182" t="s">
-        <v>69</v>
-      </c>
-      <c r="O23" s="183"/>
-      <c r="P23" s="183"/>
-      <c r="Q23" s="184"/>
+      <c r="E23" s="193" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="189"/>
+      <c r="G23" s="189"/>
+      <c r="H23" s="189"/>
+      <c r="I23" s="189"/>
+      <c r="J23" s="189"/>
+      <c r="K23" s="190"/>
+      <c r="L23" s="207" t="s">
+        <v>53</v>
+      </c>
+      <c r="M23" s="208"/>
+      <c r="N23" s="188" t="s">
+        <v>63</v>
+      </c>
+      <c r="O23" s="189"/>
+      <c r="P23" s="189"/>
+      <c r="Q23" s="190"/>
       <c r="R23" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="S23" s="158">
+        <v>54</v>
+      </c>
+      <c r="S23" s="191">
         <v>20</v>
       </c>
-      <c r="T23" s="159"/>
-      <c r="U23" s="185" t="s">
+      <c r="T23" s="192"/>
+      <c r="U23" s="193" t="s">
+        <v>58</v>
+      </c>
+      <c r="V23" s="189"/>
+      <c r="W23" s="189"/>
+      <c r="X23" s="189"/>
+      <c r="Y23" s="190"/>
+      <c r="Z23" s="188"/>
+      <c r="AA23" s="189"/>
+      <c r="AB23" s="189"/>
+      <c r="AC23" s="189"/>
+      <c r="AD23" s="189"/>
+      <c r="AE23" s="194"/>
+      <c r="AF23" s="193"/>
+      <c r="AG23" s="189"/>
+      <c r="AH23" s="189"/>
+      <c r="AI23" s="189"/>
+      <c r="AJ23" s="189"/>
+      <c r="AK23" s="189"/>
+      <c r="AL23" s="194"/>
+      <c r="AM23" s="209"/>
+      <c r="AN23" s="210"/>
+      <c r="AO23" s="210"/>
+      <c r="AP23" s="210"/>
+      <c r="AQ23" s="211"/>
+      <c r="AR23" s="201"/>
+      <c r="AS23" s="202"/>
+      <c r="AT23" s="202"/>
+      <c r="AU23" s="202"/>
+      <c r="AV23" s="203"/>
+      <c r="AW23" s="201"/>
+      <c r="AX23" s="202"/>
+      <c r="AY23" s="202"/>
+      <c r="AZ23" s="202"/>
+      <c r="BA23" s="203"/>
+      <c r="BB23" s="201"/>
+      <c r="BC23" s="202"/>
+      <c r="BD23" s="202"/>
+      <c r="BE23" s="202"/>
+      <c r="BF23" s="203"/>
+      <c r="BG23" s="198" t="s">
         <v>64</v>
       </c>
-      <c r="V23" s="183"/>
-      <c r="W23" s="183"/>
-      <c r="X23" s="183"/>
-      <c r="Y23" s="184"/>
-      <c r="Z23" s="182"/>
-      <c r="AA23" s="183"/>
-      <c r="AB23" s="183"/>
-      <c r="AC23" s="183"/>
-      <c r="AD23" s="183"/>
-      <c r="AE23" s="186"/>
-      <c r="AF23" s="185"/>
-      <c r="AG23" s="183"/>
-      <c r="AH23" s="183"/>
-      <c r="AI23" s="183"/>
-      <c r="AJ23" s="183"/>
-      <c r="AK23" s="183"/>
-      <c r="AL23" s="186"/>
-      <c r="AM23" s="218"/>
-      <c r="AN23" s="219"/>
-      <c r="AO23" s="219"/>
-      <c r="AP23" s="219"/>
-      <c r="AQ23" s="220"/>
-      <c r="AR23" s="187"/>
-      <c r="AS23" s="188"/>
-      <c r="AT23" s="188"/>
-      <c r="AU23" s="188"/>
-      <c r="AV23" s="189"/>
-      <c r="AW23" s="187"/>
-      <c r="AX23" s="188"/>
-      <c r="AY23" s="188"/>
-      <c r="AZ23" s="188"/>
-      <c r="BA23" s="189"/>
-      <c r="BB23" s="187"/>
-      <c r="BC23" s="188"/>
-      <c r="BD23" s="188"/>
-      <c r="BE23" s="188"/>
-      <c r="BF23" s="189"/>
-      <c r="BG23" s="168" t="s">
-        <v>70</v>
-      </c>
-      <c r="BH23" s="169"/>
-      <c r="BI23" s="169"/>
-      <c r="BJ23" s="169"/>
-      <c r="BK23" s="169"/>
-      <c r="BL23" s="169"/>
-      <c r="BM23" s="170"/>
-      <c r="BN23" s="187"/>
-      <c r="BO23" s="188"/>
-      <c r="BP23" s="188"/>
-      <c r="BQ23" s="188"/>
-      <c r="BR23" s="189"/>
-      <c r="BS23" s="222">
+      <c r="BH23" s="199"/>
+      <c r="BI23" s="199"/>
+      <c r="BJ23" s="199"/>
+      <c r="BK23" s="199"/>
+      <c r="BL23" s="199"/>
+      <c r="BM23" s="200"/>
+      <c r="BN23" s="201"/>
+      <c r="BO23" s="202"/>
+      <c r="BP23" s="202"/>
+      <c r="BQ23" s="202"/>
+      <c r="BR23" s="203"/>
+      <c r="BS23" s="172">
         <v>6</v>
       </c>
-      <c r="BT23" s="223"/>
-      <c r="BU23" s="223"/>
-      <c r="BV23" s="223"/>
-      <c r="BW23" s="224"/>
+      <c r="BT23" s="173"/>
+      <c r="BU23" s="173"/>
+      <c r="BV23" s="173"/>
+      <c r="BW23" s="174"/>
       <c r="BX23" s="14"/>
       <c r="BY23" s="14"/>
     </row>
@@ -11677,95 +11658,95 @@
       </c>
       <c r="C24" s="78"/>
       <c r="D24" s="78"/>
-      <c r="E24" s="185" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="183"/>
-      <c r="G24" s="183"/>
-      <c r="H24" s="183"/>
-      <c r="I24" s="183"/>
-      <c r="J24" s="183"/>
-      <c r="K24" s="184"/>
-      <c r="L24" s="179" t="s">
-        <v>59</v>
-      </c>
-      <c r="M24" s="180"/>
-      <c r="N24" s="182" t="s">
-        <v>76</v>
-      </c>
-      <c r="O24" s="183"/>
-      <c r="P24" s="183"/>
-      <c r="Q24" s="184"/>
+      <c r="E24" s="193" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="189"/>
+      <c r="G24" s="189"/>
+      <c r="H24" s="189"/>
+      <c r="I24" s="189"/>
+      <c r="J24" s="189"/>
+      <c r="K24" s="190"/>
+      <c r="L24" s="207" t="s">
+        <v>53</v>
+      </c>
+      <c r="M24" s="208"/>
+      <c r="N24" s="188" t="s">
+        <v>70</v>
+      </c>
+      <c r="O24" s="189"/>
+      <c r="P24" s="189"/>
+      <c r="Q24" s="190"/>
       <c r="R24" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="S24" s="158">
+        <v>54</v>
+      </c>
+      <c r="S24" s="191">
         <v>20</v>
       </c>
-      <c r="T24" s="159"/>
-      <c r="U24" s="185" t="s">
-        <v>73</v>
-      </c>
-      <c r="V24" s="183"/>
-      <c r="W24" s="183"/>
-      <c r="X24" s="183"/>
-      <c r="Y24" s="184"/>
-      <c r="Z24" s="182"/>
-      <c r="AA24" s="183"/>
-      <c r="AB24" s="183"/>
-      <c r="AC24" s="183"/>
-      <c r="AD24" s="183"/>
-      <c r="AE24" s="186"/>
-      <c r="AF24" s="185"/>
-      <c r="AG24" s="183"/>
-      <c r="AH24" s="183"/>
-      <c r="AI24" s="183"/>
-      <c r="AJ24" s="183"/>
-      <c r="AK24" s="183"/>
-      <c r="AL24" s="186"/>
-      <c r="AM24" s="218"/>
-      <c r="AN24" s="219"/>
-      <c r="AO24" s="219"/>
-      <c r="AP24" s="219"/>
-      <c r="AQ24" s="220"/>
-      <c r="AR24" s="187"/>
-      <c r="AS24" s="188"/>
-      <c r="AT24" s="188"/>
-      <c r="AU24" s="188"/>
-      <c r="AV24" s="189"/>
-      <c r="AW24" s="187" t="s">
-        <v>74</v>
-      </c>
-      <c r="AX24" s="188"/>
-      <c r="AY24" s="188"/>
-      <c r="AZ24" s="188"/>
-      <c r="BA24" s="189"/>
-      <c r="BB24" s="187"/>
-      <c r="BC24" s="188"/>
-      <c r="BD24" s="188"/>
-      <c r="BE24" s="188"/>
-      <c r="BF24" s="189"/>
-      <c r="BG24" s="168" t="s">
-        <v>70</v>
-      </c>
-      <c r="BH24" s="169"/>
-      <c r="BI24" s="169"/>
-      <c r="BJ24" s="169"/>
-      <c r="BK24" s="169"/>
-      <c r="BL24" s="169"/>
-      <c r="BM24" s="170"/>
-      <c r="BN24" s="187"/>
-      <c r="BO24" s="188"/>
-      <c r="BP24" s="188"/>
-      <c r="BQ24" s="188"/>
-      <c r="BR24" s="189"/>
-      <c r="BS24" s="222">
+      <c r="T24" s="192"/>
+      <c r="U24" s="193" t="s">
+        <v>67</v>
+      </c>
+      <c r="V24" s="189"/>
+      <c r="W24" s="189"/>
+      <c r="X24" s="189"/>
+      <c r="Y24" s="190"/>
+      <c r="Z24" s="188"/>
+      <c r="AA24" s="189"/>
+      <c r="AB24" s="189"/>
+      <c r="AC24" s="189"/>
+      <c r="AD24" s="189"/>
+      <c r="AE24" s="194"/>
+      <c r="AF24" s="193"/>
+      <c r="AG24" s="189"/>
+      <c r="AH24" s="189"/>
+      <c r="AI24" s="189"/>
+      <c r="AJ24" s="189"/>
+      <c r="AK24" s="189"/>
+      <c r="AL24" s="194"/>
+      <c r="AM24" s="209"/>
+      <c r="AN24" s="210"/>
+      <c r="AO24" s="210"/>
+      <c r="AP24" s="210"/>
+      <c r="AQ24" s="211"/>
+      <c r="AR24" s="201"/>
+      <c r="AS24" s="202"/>
+      <c r="AT24" s="202"/>
+      <c r="AU24" s="202"/>
+      <c r="AV24" s="203"/>
+      <c r="AW24" s="201" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX24" s="202"/>
+      <c r="AY24" s="202"/>
+      <c r="AZ24" s="202"/>
+      <c r="BA24" s="203"/>
+      <c r="BB24" s="201"/>
+      <c r="BC24" s="202"/>
+      <c r="BD24" s="202"/>
+      <c r="BE24" s="202"/>
+      <c r="BF24" s="203"/>
+      <c r="BG24" s="198" t="s">
+        <v>64</v>
+      </c>
+      <c r="BH24" s="199"/>
+      <c r="BI24" s="199"/>
+      <c r="BJ24" s="199"/>
+      <c r="BK24" s="199"/>
+      <c r="BL24" s="199"/>
+      <c r="BM24" s="200"/>
+      <c r="BN24" s="201"/>
+      <c r="BO24" s="202"/>
+      <c r="BP24" s="202"/>
+      <c r="BQ24" s="202"/>
+      <c r="BR24" s="203"/>
+      <c r="BS24" s="172">
         <v>7</v>
       </c>
-      <c r="BT24" s="223"/>
-      <c r="BU24" s="223"/>
-      <c r="BV24" s="223"/>
-      <c r="BW24" s="224"/>
+      <c r="BT24" s="173"/>
+      <c r="BU24" s="173"/>
+      <c r="BV24" s="173"/>
+      <c r="BW24" s="174"/>
       <c r="BX24" s="14"/>
       <c r="BY24" s="14"/>
     </row>
@@ -11776,95 +11757,95 @@
       </c>
       <c r="C25" s="78"/>
       <c r="D25" s="78"/>
-      <c r="E25" s="185" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="183"/>
-      <c r="G25" s="183"/>
-      <c r="H25" s="183"/>
-      <c r="I25" s="183"/>
-      <c r="J25" s="183"/>
-      <c r="K25" s="184"/>
-      <c r="L25" s="179" t="s">
-        <v>59</v>
-      </c>
-      <c r="M25" s="180"/>
-      <c r="N25" s="182" t="s">
-        <v>76</v>
-      </c>
-      <c r="O25" s="183"/>
-      <c r="P25" s="183"/>
-      <c r="Q25" s="184"/>
+      <c r="E25" s="193" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="189"/>
+      <c r="G25" s="189"/>
+      <c r="H25" s="189"/>
+      <c r="I25" s="189"/>
+      <c r="J25" s="189"/>
+      <c r="K25" s="190"/>
+      <c r="L25" s="207" t="s">
+        <v>53</v>
+      </c>
+      <c r="M25" s="208"/>
+      <c r="N25" s="188" t="s">
+        <v>70</v>
+      </c>
+      <c r="O25" s="189"/>
+      <c r="P25" s="189"/>
+      <c r="Q25" s="190"/>
       <c r="R25" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="S25" s="158">
+        <v>54</v>
+      </c>
+      <c r="S25" s="191">
         <v>20</v>
       </c>
-      <c r="T25" s="159"/>
-      <c r="U25" s="185" t="s">
-        <v>73</v>
-      </c>
-      <c r="V25" s="183"/>
-      <c r="W25" s="183"/>
-      <c r="X25" s="183"/>
-      <c r="Y25" s="184"/>
-      <c r="Z25" s="182"/>
-      <c r="AA25" s="183"/>
-      <c r="AB25" s="183"/>
-      <c r="AC25" s="183"/>
-      <c r="AD25" s="183"/>
-      <c r="AE25" s="186"/>
-      <c r="AF25" s="185"/>
-      <c r="AG25" s="183"/>
-      <c r="AH25" s="183"/>
-      <c r="AI25" s="183"/>
-      <c r="AJ25" s="183"/>
-      <c r="AK25" s="183"/>
-      <c r="AL25" s="186"/>
-      <c r="AM25" s="225"/>
-      <c r="AN25" s="226"/>
-      <c r="AO25" s="226"/>
-      <c r="AP25" s="226"/>
-      <c r="AQ25" s="227"/>
-      <c r="AR25" s="187"/>
-      <c r="AS25" s="188"/>
-      <c r="AT25" s="188"/>
-      <c r="AU25" s="188"/>
-      <c r="AV25" s="189"/>
-      <c r="AW25" s="218" t="s">
-        <v>74</v>
-      </c>
-      <c r="AX25" s="219"/>
-      <c r="AY25" s="219"/>
-      <c r="AZ25" s="219"/>
-      <c r="BA25" s="220"/>
-      <c r="BB25" s="187"/>
-      <c r="BC25" s="188"/>
-      <c r="BD25" s="188"/>
-      <c r="BE25" s="188"/>
-      <c r="BF25" s="189"/>
-      <c r="BG25" s="168" t="s">
-        <v>70</v>
-      </c>
-      <c r="BH25" s="169"/>
-      <c r="BI25" s="169"/>
-      <c r="BJ25" s="169"/>
-      <c r="BK25" s="169"/>
-      <c r="BL25" s="169"/>
-      <c r="BM25" s="170"/>
-      <c r="BN25" s="218"/>
-      <c r="BO25" s="219"/>
-      <c r="BP25" s="219"/>
-      <c r="BQ25" s="219"/>
-      <c r="BR25" s="220"/>
-      <c r="BS25" s="222">
+      <c r="T25" s="192"/>
+      <c r="U25" s="193" t="s">
+        <v>67</v>
+      </c>
+      <c r="V25" s="189"/>
+      <c r="W25" s="189"/>
+      <c r="X25" s="189"/>
+      <c r="Y25" s="190"/>
+      <c r="Z25" s="188"/>
+      <c r="AA25" s="189"/>
+      <c r="AB25" s="189"/>
+      <c r="AC25" s="189"/>
+      <c r="AD25" s="189"/>
+      <c r="AE25" s="194"/>
+      <c r="AF25" s="193"/>
+      <c r="AG25" s="189"/>
+      <c r="AH25" s="189"/>
+      <c r="AI25" s="189"/>
+      <c r="AJ25" s="189"/>
+      <c r="AK25" s="189"/>
+      <c r="AL25" s="194"/>
+      <c r="AM25" s="215"/>
+      <c r="AN25" s="216"/>
+      <c r="AO25" s="216"/>
+      <c r="AP25" s="216"/>
+      <c r="AQ25" s="217"/>
+      <c r="AR25" s="201"/>
+      <c r="AS25" s="202"/>
+      <c r="AT25" s="202"/>
+      <c r="AU25" s="202"/>
+      <c r="AV25" s="203"/>
+      <c r="AW25" s="209" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX25" s="210"/>
+      <c r="AY25" s="210"/>
+      <c r="AZ25" s="210"/>
+      <c r="BA25" s="211"/>
+      <c r="BB25" s="201"/>
+      <c r="BC25" s="202"/>
+      <c r="BD25" s="202"/>
+      <c r="BE25" s="202"/>
+      <c r="BF25" s="203"/>
+      <c r="BG25" s="198" t="s">
+        <v>64</v>
+      </c>
+      <c r="BH25" s="199"/>
+      <c r="BI25" s="199"/>
+      <c r="BJ25" s="199"/>
+      <c r="BK25" s="199"/>
+      <c r="BL25" s="199"/>
+      <c r="BM25" s="200"/>
+      <c r="BN25" s="209"/>
+      <c r="BO25" s="210"/>
+      <c r="BP25" s="210"/>
+      <c r="BQ25" s="210"/>
+      <c r="BR25" s="211"/>
+      <c r="BS25" s="172">
         <v>8</v>
       </c>
-      <c r="BT25" s="223"/>
-      <c r="BU25" s="223"/>
-      <c r="BV25" s="223"/>
-      <c r="BW25" s="224"/>
+      <c r="BT25" s="173"/>
+      <c r="BU25" s="173"/>
+      <c r="BV25" s="173"/>
+      <c r="BW25" s="174"/>
       <c r="BX25" s="14"/>
       <c r="BY25" s="14"/>
     </row>
@@ -11874,43 +11855,43 @@
       </c>
       <c r="C26" s="78"/>
       <c r="D26" s="78"/>
-      <c r="E26" s="176" t="s">
-        <v>77</v>
-      </c>
-      <c r="F26" s="177"/>
-      <c r="G26" s="177"/>
-      <c r="H26" s="177"/>
-      <c r="I26" s="177"/>
-      <c r="J26" s="177"/>
-      <c r="K26" s="178"/>
-      <c r="L26" s="179" t="s">
-        <v>59</v>
-      </c>
-      <c r="M26" s="180"/>
-      <c r="N26" s="181" t="s">
-        <v>64</v>
-      </c>
-      <c r="O26" s="177"/>
-      <c r="P26" s="177"/>
-      <c r="Q26" s="178"/>
+      <c r="E26" s="225" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="219"/>
+      <c r="G26" s="219"/>
+      <c r="H26" s="219"/>
+      <c r="I26" s="219"/>
+      <c r="J26" s="219"/>
+      <c r="K26" s="226"/>
+      <c r="L26" s="207" t="s">
+        <v>53</v>
+      </c>
+      <c r="M26" s="208"/>
+      <c r="N26" s="218" t="s">
+        <v>58</v>
+      </c>
+      <c r="O26" s="219"/>
+      <c r="P26" s="219"/>
+      <c r="Q26" s="226"/>
       <c r="R26" s="75"/>
-      <c r="S26" s="158">
+      <c r="S26" s="191">
         <v>20</v>
       </c>
-      <c r="T26" s="159"/>
-      <c r="U26" s="176" t="s">
-        <v>78</v>
-      </c>
-      <c r="V26" s="177"/>
-      <c r="W26" s="177"/>
-      <c r="X26" s="177"/>
-      <c r="Y26" s="178"/>
+      <c r="T26" s="192"/>
+      <c r="U26" s="225" t="s">
+        <v>72</v>
+      </c>
+      <c r="V26" s="219"/>
+      <c r="W26" s="219"/>
+      <c r="X26" s="219"/>
+      <c r="Y26" s="226"/>
       <c r="Z26" s="93"/>
-      <c r="AA26" s="156"/>
-      <c r="AB26" s="156"/>
-      <c r="AC26" s="156"/>
-      <c r="AD26" s="156"/>
-      <c r="AE26" s="157"/>
+      <c r="AA26" s="245"/>
+      <c r="AB26" s="245"/>
+      <c r="AC26" s="245"/>
+      <c r="AD26" s="245"/>
+      <c r="AE26" s="246"/>
       <c r="AF26" s="78"/>
       <c r="AG26" s="79"/>
       <c r="AH26" s="79"/>
@@ -11918,35 +11899,35 @@
       <c r="AJ26" s="79"/>
       <c r="AK26" s="79"/>
       <c r="AL26" s="80"/>
-      <c r="AM26" s="160"/>
-      <c r="AN26" s="161"/>
-      <c r="AO26" s="161"/>
-      <c r="AP26" s="161"/>
-      <c r="AQ26" s="162"/>
+      <c r="AM26" s="247"/>
+      <c r="AN26" s="248"/>
+      <c r="AO26" s="248"/>
+      <c r="AP26" s="248"/>
+      <c r="AQ26" s="249"/>
       <c r="AR26" s="81"/>
       <c r="AS26" s="82"/>
       <c r="AT26" s="82"/>
       <c r="AU26" s="82"/>
       <c r="AV26" s="83"/>
       <c r="AW26" s="94"/>
-      <c r="AX26" s="163"/>
-      <c r="AY26" s="163"/>
-      <c r="AZ26" s="163"/>
-      <c r="BA26" s="164"/>
-      <c r="BB26" s="165"/>
-      <c r="BC26" s="166"/>
-      <c r="BD26" s="166"/>
-      <c r="BE26" s="166"/>
-      <c r="BF26" s="167"/>
-      <c r="BG26" s="168" t="s">
-        <v>70</v>
-      </c>
-      <c r="BH26" s="169"/>
-      <c r="BI26" s="169"/>
-      <c r="BJ26" s="169"/>
-      <c r="BK26" s="169"/>
-      <c r="BL26" s="169"/>
-      <c r="BM26" s="170"/>
+      <c r="AX26" s="250"/>
+      <c r="AY26" s="250"/>
+      <c r="AZ26" s="250"/>
+      <c r="BA26" s="251"/>
+      <c r="BB26" s="252"/>
+      <c r="BC26" s="253"/>
+      <c r="BD26" s="253"/>
+      <c r="BE26" s="253"/>
+      <c r="BF26" s="254"/>
+      <c r="BG26" s="198" t="s">
+        <v>64</v>
+      </c>
+      <c r="BH26" s="199"/>
+      <c r="BI26" s="199"/>
+      <c r="BJ26" s="199"/>
+      <c r="BK26" s="199"/>
+      <c r="BL26" s="199"/>
+      <c r="BM26" s="200"/>
       <c r="BN26" s="94"/>
       <c r="BO26" s="95"/>
       <c r="BP26" s="95"/>
@@ -11969,93 +11950,93 @@
       </c>
       <c r="C27" s="78"/>
       <c r="D27" s="78"/>
-      <c r="E27" s="215" t="s">
-        <v>75</v>
-      </c>
-      <c r="F27" s="216"/>
-      <c r="G27" s="216"/>
-      <c r="H27" s="216"/>
-      <c r="I27" s="216"/>
-      <c r="J27" s="216"/>
-      <c r="K27" s="217"/>
-      <c r="L27" s="179" t="s">
-        <v>59</v>
-      </c>
-      <c r="M27" s="180"/>
-      <c r="N27" s="182" t="s">
+      <c r="E27" s="212" t="s">
         <v>69</v>
       </c>
-      <c r="O27" s="183"/>
-      <c r="P27" s="183"/>
-      <c r="Q27" s="184"/>
+      <c r="F27" s="213"/>
+      <c r="G27" s="213"/>
+      <c r="H27" s="213"/>
+      <c r="I27" s="213"/>
+      <c r="J27" s="213"/>
+      <c r="K27" s="214"/>
+      <c r="L27" s="207" t="s">
+        <v>53</v>
+      </c>
+      <c r="M27" s="208"/>
+      <c r="N27" s="188" t="s">
+        <v>63</v>
+      </c>
+      <c r="O27" s="189"/>
+      <c r="P27" s="189"/>
+      <c r="Q27" s="190"/>
       <c r="R27" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="S27" s="158">
+        <v>54</v>
+      </c>
+      <c r="S27" s="191">
         <v>20</v>
       </c>
-      <c r="T27" s="159"/>
-      <c r="U27" s="185" t="s">
+      <c r="T27" s="192"/>
+      <c r="U27" s="193" t="s">
+        <v>58</v>
+      </c>
+      <c r="V27" s="189"/>
+      <c r="W27" s="189"/>
+      <c r="X27" s="189"/>
+      <c r="Y27" s="190"/>
+      <c r="Z27" s="188"/>
+      <c r="AA27" s="189"/>
+      <c r="AB27" s="189"/>
+      <c r="AC27" s="189"/>
+      <c r="AD27" s="189"/>
+      <c r="AE27" s="194"/>
+      <c r="AF27" s="193"/>
+      <c r="AG27" s="189"/>
+      <c r="AH27" s="189"/>
+      <c r="AI27" s="189"/>
+      <c r="AJ27" s="189"/>
+      <c r="AK27" s="189"/>
+      <c r="AL27" s="194"/>
+      <c r="AM27" s="209"/>
+      <c r="AN27" s="210"/>
+      <c r="AO27" s="210"/>
+      <c r="AP27" s="210"/>
+      <c r="AQ27" s="211"/>
+      <c r="AR27" s="201"/>
+      <c r="AS27" s="202"/>
+      <c r="AT27" s="202"/>
+      <c r="AU27" s="202"/>
+      <c r="AV27" s="203"/>
+      <c r="AW27" s="201"/>
+      <c r="AX27" s="202"/>
+      <c r="AY27" s="202"/>
+      <c r="AZ27" s="202"/>
+      <c r="BA27" s="203"/>
+      <c r="BB27" s="201"/>
+      <c r="BC27" s="202"/>
+      <c r="BD27" s="202"/>
+      <c r="BE27" s="202"/>
+      <c r="BF27" s="203"/>
+      <c r="BG27" s="198" t="s">
         <v>64</v>
       </c>
-      <c r="V27" s="183"/>
-      <c r="W27" s="183"/>
-      <c r="X27" s="183"/>
-      <c r="Y27" s="184"/>
-      <c r="Z27" s="182"/>
-      <c r="AA27" s="183"/>
-      <c r="AB27" s="183"/>
-      <c r="AC27" s="183"/>
-      <c r="AD27" s="183"/>
-      <c r="AE27" s="186"/>
-      <c r="AF27" s="185"/>
-      <c r="AG27" s="183"/>
-      <c r="AH27" s="183"/>
-      <c r="AI27" s="183"/>
-      <c r="AJ27" s="183"/>
-      <c r="AK27" s="183"/>
-      <c r="AL27" s="186"/>
-      <c r="AM27" s="218"/>
-      <c r="AN27" s="219"/>
-      <c r="AO27" s="219"/>
-      <c r="AP27" s="219"/>
-      <c r="AQ27" s="220"/>
-      <c r="AR27" s="187"/>
-      <c r="AS27" s="188"/>
-      <c r="AT27" s="188"/>
-      <c r="AU27" s="188"/>
-      <c r="AV27" s="189"/>
-      <c r="AW27" s="187"/>
-      <c r="AX27" s="188"/>
-      <c r="AY27" s="188"/>
-      <c r="AZ27" s="188"/>
-      <c r="BA27" s="189"/>
-      <c r="BB27" s="187"/>
-      <c r="BC27" s="188"/>
-      <c r="BD27" s="188"/>
-      <c r="BE27" s="188"/>
-      <c r="BF27" s="189"/>
-      <c r="BG27" s="168" t="s">
-        <v>70</v>
-      </c>
-      <c r="BH27" s="169"/>
-      <c r="BI27" s="169"/>
-      <c r="BJ27" s="169"/>
-      <c r="BK27" s="169"/>
-      <c r="BL27" s="169"/>
-      <c r="BM27" s="170"/>
-      <c r="BN27" s="187"/>
-      <c r="BO27" s="188"/>
-      <c r="BP27" s="188"/>
-      <c r="BQ27" s="188"/>
-      <c r="BR27" s="189"/>
-      <c r="BS27" s="222">
+      <c r="BH27" s="199"/>
+      <c r="BI27" s="199"/>
+      <c r="BJ27" s="199"/>
+      <c r="BK27" s="199"/>
+      <c r="BL27" s="199"/>
+      <c r="BM27" s="200"/>
+      <c r="BN27" s="201"/>
+      <c r="BO27" s="202"/>
+      <c r="BP27" s="202"/>
+      <c r="BQ27" s="202"/>
+      <c r="BR27" s="203"/>
+      <c r="BS27" s="172">
         <v>10</v>
       </c>
-      <c r="BT27" s="223"/>
-      <c r="BU27" s="223"/>
-      <c r="BV27" s="223"/>
-      <c r="BW27" s="224"/>
+      <c r="BT27" s="173"/>
+      <c r="BU27" s="173"/>
+      <c r="BV27" s="173"/>
+      <c r="BW27" s="174"/>
       <c r="BX27" s="14"/>
       <c r="BY27" s="14"/>
     </row>
@@ -12066,85 +12047,85 @@
       </c>
       <c r="C28" s="78"/>
       <c r="D28" s="78"/>
-      <c r="E28" s="215" t="s">
-        <v>79</v>
-      </c>
-      <c r="F28" s="216"/>
-      <c r="G28" s="216"/>
-      <c r="H28" s="216"/>
-      <c r="I28" s="216"/>
-      <c r="J28" s="216"/>
-      <c r="K28" s="217"/>
-      <c r="L28" s="179" t="s">
-        <v>59</v>
-      </c>
-      <c r="M28" s="180"/>
-      <c r="N28" s="182" t="s">
-        <v>17</v>
-      </c>
-      <c r="O28" s="183"/>
-      <c r="P28" s="183"/>
-      <c r="Q28" s="184"/>
+      <c r="E28" s="212" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="213"/>
+      <c r="G28" s="213"/>
+      <c r="H28" s="213"/>
+      <c r="I28" s="213"/>
+      <c r="J28" s="213"/>
+      <c r="K28" s="214"/>
+      <c r="L28" s="207" t="s">
+        <v>53</v>
+      </c>
+      <c r="M28" s="208"/>
+      <c r="N28" s="188" t="s">
+        <v>12</v>
+      </c>
+      <c r="O28" s="189"/>
+      <c r="P28" s="189"/>
+      <c r="Q28" s="190"/>
       <c r="R28" s="75"/>
-      <c r="S28" s="158"/>
-      <c r="T28" s="159"/>
-      <c r="U28" s="185" t="s">
-        <v>17</v>
-      </c>
-      <c r="V28" s="183"/>
-      <c r="W28" s="183"/>
-      <c r="X28" s="183"/>
-      <c r="Y28" s="184"/>
-      <c r="Z28" s="182"/>
-      <c r="AA28" s="183"/>
-      <c r="AB28" s="183"/>
-      <c r="AC28" s="183"/>
-      <c r="AD28" s="183"/>
-      <c r="AE28" s="186"/>
-      <c r="AF28" s="185"/>
-      <c r="AG28" s="183"/>
-      <c r="AH28" s="183"/>
-      <c r="AI28" s="183"/>
-      <c r="AJ28" s="183"/>
-      <c r="AK28" s="183"/>
-      <c r="AL28" s="186"/>
-      <c r="AM28" s="218"/>
-      <c r="AN28" s="219"/>
-      <c r="AO28" s="219"/>
-      <c r="AP28" s="219"/>
-      <c r="AQ28" s="220"/>
-      <c r="AR28" s="187"/>
-      <c r="AS28" s="188"/>
-      <c r="AT28" s="188"/>
-      <c r="AU28" s="188"/>
-      <c r="AV28" s="189"/>
-      <c r="AW28" s="187"/>
-      <c r="AX28" s="188"/>
-      <c r="AY28" s="188"/>
-      <c r="AZ28" s="188"/>
-      <c r="BA28" s="189"/>
-      <c r="BB28" s="187"/>
-      <c r="BC28" s="188"/>
-      <c r="BD28" s="188"/>
-      <c r="BE28" s="188"/>
-      <c r="BF28" s="189"/>
-      <c r="BG28" s="176"/>
-      <c r="BH28" s="177"/>
-      <c r="BI28" s="177"/>
-      <c r="BJ28" s="177"/>
-      <c r="BK28" s="177"/>
-      <c r="BL28" s="177"/>
-      <c r="BM28" s="214"/>
-      <c r="BN28" s="187"/>
-      <c r="BO28" s="188"/>
-      <c r="BP28" s="188"/>
-      <c r="BQ28" s="188"/>
-      <c r="BR28" s="189"/>
-      <c r="BS28" s="187"/>
-      <c r="BT28" s="188"/>
-      <c r="BU28" s="188"/>
-      <c r="BV28" s="188"/>
-      <c r="BW28" s="189"/>
+      <c r="S28" s="191"/>
+      <c r="T28" s="192"/>
+      <c r="U28" s="193" t="s">
+        <v>12</v>
+      </c>
+      <c r="V28" s="189"/>
+      <c r="W28" s="189"/>
+      <c r="X28" s="189"/>
+      <c r="Y28" s="190"/>
+      <c r="Z28" s="188"/>
+      <c r="AA28" s="189"/>
+      <c r="AB28" s="189"/>
+      <c r="AC28" s="189"/>
+      <c r="AD28" s="189"/>
+      <c r="AE28" s="194"/>
+      <c r="AF28" s="193"/>
+      <c r="AG28" s="189"/>
+      <c r="AH28" s="189"/>
+      <c r="AI28" s="189"/>
+      <c r="AJ28" s="189"/>
+      <c r="AK28" s="189"/>
+      <c r="AL28" s="194"/>
+      <c r="AM28" s="209"/>
+      <c r="AN28" s="210"/>
+      <c r="AO28" s="210"/>
+      <c r="AP28" s="210"/>
+      <c r="AQ28" s="211"/>
+      <c r="AR28" s="201"/>
+      <c r="AS28" s="202"/>
+      <c r="AT28" s="202"/>
+      <c r="AU28" s="202"/>
+      <c r="AV28" s="203"/>
+      <c r="AW28" s="201"/>
+      <c r="AX28" s="202"/>
+      <c r="AY28" s="202"/>
+      <c r="AZ28" s="202"/>
+      <c r="BA28" s="203"/>
+      <c r="BB28" s="201"/>
+      <c r="BC28" s="202"/>
+      <c r="BD28" s="202"/>
+      <c r="BE28" s="202"/>
+      <c r="BF28" s="203"/>
+      <c r="BG28" s="225"/>
+      <c r="BH28" s="219"/>
+      <c r="BI28" s="219"/>
+      <c r="BJ28" s="219"/>
+      <c r="BK28" s="219"/>
+      <c r="BL28" s="219"/>
+      <c r="BM28" s="220"/>
+      <c r="BN28" s="201"/>
+      <c r="BO28" s="202"/>
+      <c r="BP28" s="202"/>
+      <c r="BQ28" s="202"/>
+      <c r="BR28" s="203"/>
+      <c r="BS28" s="201"/>
+      <c r="BT28" s="202"/>
+      <c r="BU28" s="202"/>
+      <c r="BV28" s="202"/>
+      <c r="BW28" s="203"/>
       <c r="BX28" s="14"/>
       <c r="BY28" s="14"/>
     </row>
@@ -12155,39 +12136,39 @@
       </c>
       <c r="C29" s="78"/>
       <c r="D29" s="78"/>
-      <c r="E29" s="215" t="s">
-        <v>80</v>
-      </c>
-      <c r="F29" s="216"/>
-      <c r="G29" s="216"/>
-      <c r="H29" s="216"/>
-      <c r="I29" s="216"/>
-      <c r="J29" s="216"/>
-      <c r="K29" s="217"/>
-      <c r="L29" s="179" t="s">
-        <v>59</v>
-      </c>
-      <c r="M29" s="180"/>
-      <c r="N29" s="182" t="s">
-        <v>69</v>
-      </c>
-      <c r="O29" s="183"/>
-      <c r="P29" s="183"/>
-      <c r="Q29" s="184"/>
+      <c r="E29" s="212" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="213"/>
+      <c r="G29" s="213"/>
+      <c r="H29" s="213"/>
+      <c r="I29" s="213"/>
+      <c r="J29" s="213"/>
+      <c r="K29" s="214"/>
+      <c r="L29" s="207" t="s">
+        <v>53</v>
+      </c>
+      <c r="M29" s="208"/>
+      <c r="N29" s="188" t="s">
+        <v>63</v>
+      </c>
+      <c r="O29" s="189"/>
+      <c r="P29" s="189"/>
+      <c r="Q29" s="190"/>
       <c r="R29" s="75"/>
-      <c r="S29" s="158"/>
-      <c r="T29" s="159"/>
-      <c r="U29" s="185"/>
-      <c r="V29" s="183"/>
-      <c r="W29" s="183"/>
-      <c r="X29" s="183"/>
-      <c r="Y29" s="184"/>
-      <c r="Z29" s="181"/>
-      <c r="AA29" s="177"/>
-      <c r="AB29" s="177"/>
-      <c r="AC29" s="177"/>
-      <c r="AD29" s="177"/>
-      <c r="AE29" s="214"/>
+      <c r="S29" s="191"/>
+      <c r="T29" s="192"/>
+      <c r="U29" s="193"/>
+      <c r="V29" s="189"/>
+      <c r="W29" s="189"/>
+      <c r="X29" s="189"/>
+      <c r="Y29" s="190"/>
+      <c r="Z29" s="218"/>
+      <c r="AA29" s="219"/>
+      <c r="AB29" s="219"/>
+      <c r="AC29" s="219"/>
+      <c r="AD29" s="219"/>
+      <c r="AE29" s="220"/>
       <c r="AF29" s="78"/>
       <c r="AG29" s="79"/>
       <c r="AH29" s="79"/>
@@ -12195,43 +12176,43 @@
       <c r="AJ29" s="79"/>
       <c r="AK29" s="79"/>
       <c r="AL29" s="80"/>
-      <c r="AM29" s="211"/>
-      <c r="AN29" s="212"/>
-      <c r="AO29" s="212"/>
-      <c r="AP29" s="212"/>
-      <c r="AQ29" s="213"/>
+      <c r="AM29" s="221"/>
+      <c r="AN29" s="222"/>
+      <c r="AO29" s="222"/>
+      <c r="AP29" s="222"/>
+      <c r="AQ29" s="223"/>
       <c r="AR29" s="81"/>
       <c r="AS29" s="82"/>
       <c r="AT29" s="82"/>
       <c r="AU29" s="82"/>
       <c r="AV29" s="83"/>
-      <c r="AW29" s="215"/>
-      <c r="AX29" s="216"/>
-      <c r="AY29" s="216"/>
-      <c r="AZ29" s="216"/>
-      <c r="BA29" s="221"/>
-      <c r="BB29" s="215"/>
-      <c r="BC29" s="216"/>
-      <c r="BD29" s="216"/>
-      <c r="BE29" s="216"/>
-      <c r="BF29" s="221"/>
-      <c r="BG29" s="176"/>
-      <c r="BH29" s="177"/>
-      <c r="BI29" s="177"/>
-      <c r="BJ29" s="177"/>
-      <c r="BK29" s="177"/>
-      <c r="BL29" s="177"/>
-      <c r="BM29" s="214"/>
-      <c r="BN29" s="215"/>
-      <c r="BO29" s="216"/>
-      <c r="BP29" s="216"/>
-      <c r="BQ29" s="216"/>
-      <c r="BR29" s="221"/>
-      <c r="BS29" s="215"/>
-      <c r="BT29" s="216"/>
-      <c r="BU29" s="216"/>
-      <c r="BV29" s="216"/>
-      <c r="BW29" s="221"/>
+      <c r="AW29" s="212"/>
+      <c r="AX29" s="213"/>
+      <c r="AY29" s="213"/>
+      <c r="AZ29" s="213"/>
+      <c r="BA29" s="224"/>
+      <c r="BB29" s="212"/>
+      <c r="BC29" s="213"/>
+      <c r="BD29" s="213"/>
+      <c r="BE29" s="213"/>
+      <c r="BF29" s="224"/>
+      <c r="BG29" s="225"/>
+      <c r="BH29" s="219"/>
+      <c r="BI29" s="219"/>
+      <c r="BJ29" s="219"/>
+      <c r="BK29" s="219"/>
+      <c r="BL29" s="219"/>
+      <c r="BM29" s="220"/>
+      <c r="BN29" s="212"/>
+      <c r="BO29" s="213"/>
+      <c r="BP29" s="213"/>
+      <c r="BQ29" s="213"/>
+      <c r="BR29" s="224"/>
+      <c r="BS29" s="212"/>
+      <c r="BT29" s="213"/>
+      <c r="BU29" s="213"/>
+      <c r="BV29" s="213"/>
+      <c r="BW29" s="224"/>
       <c r="BX29" s="14"/>
       <c r="BY29" s="14"/>
     </row>
@@ -12242,85 +12223,85 @@
       </c>
       <c r="C30" s="78"/>
       <c r="D30" s="78"/>
-      <c r="E30" s="215" t="s">
-        <v>82</v>
-      </c>
-      <c r="F30" s="216"/>
-      <c r="G30" s="216"/>
-      <c r="H30" s="216"/>
-      <c r="I30" s="216"/>
-      <c r="J30" s="216"/>
-      <c r="K30" s="217"/>
-      <c r="L30" s="179" t="s">
-        <v>59</v>
-      </c>
-      <c r="M30" s="180"/>
-      <c r="N30" s="182" t="s">
-        <v>69</v>
-      </c>
-      <c r="O30" s="183"/>
-      <c r="P30" s="183"/>
-      <c r="Q30" s="184"/>
+      <c r="E30" s="212" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="213"/>
+      <c r="G30" s="213"/>
+      <c r="H30" s="213"/>
+      <c r="I30" s="213"/>
+      <c r="J30" s="213"/>
+      <c r="K30" s="214"/>
+      <c r="L30" s="207" t="s">
+        <v>53</v>
+      </c>
+      <c r="M30" s="208"/>
+      <c r="N30" s="188" t="s">
+        <v>63</v>
+      </c>
+      <c r="O30" s="189"/>
+      <c r="P30" s="189"/>
+      <c r="Q30" s="190"/>
       <c r="R30" s="75"/>
-      <c r="S30" s="158"/>
-      <c r="T30" s="159"/>
-      <c r="U30" s="185" t="s">
-        <v>17</v>
-      </c>
-      <c r="V30" s="183"/>
-      <c r="W30" s="183"/>
-      <c r="X30" s="183"/>
-      <c r="Y30" s="184"/>
-      <c r="Z30" s="182"/>
-      <c r="AA30" s="183"/>
-      <c r="AB30" s="183"/>
-      <c r="AC30" s="183"/>
-      <c r="AD30" s="183"/>
-      <c r="AE30" s="186"/>
-      <c r="AF30" s="185"/>
-      <c r="AG30" s="183"/>
-      <c r="AH30" s="183"/>
-      <c r="AI30" s="183"/>
-      <c r="AJ30" s="183"/>
-      <c r="AK30" s="183"/>
-      <c r="AL30" s="186"/>
-      <c r="AM30" s="218"/>
-      <c r="AN30" s="219"/>
-      <c r="AO30" s="219"/>
-      <c r="AP30" s="219"/>
-      <c r="AQ30" s="220"/>
-      <c r="AR30" s="187"/>
-      <c r="AS30" s="188"/>
-      <c r="AT30" s="188"/>
-      <c r="AU30" s="188"/>
-      <c r="AV30" s="189"/>
-      <c r="AW30" s="187"/>
-      <c r="AX30" s="188"/>
-      <c r="AY30" s="188"/>
-      <c r="AZ30" s="188"/>
-      <c r="BA30" s="189"/>
-      <c r="BB30" s="187"/>
-      <c r="BC30" s="188"/>
-      <c r="BD30" s="188"/>
-      <c r="BE30" s="188"/>
-      <c r="BF30" s="189"/>
-      <c r="BG30" s="176"/>
-      <c r="BH30" s="177"/>
-      <c r="BI30" s="177"/>
-      <c r="BJ30" s="177"/>
-      <c r="BK30" s="177"/>
-      <c r="BL30" s="177"/>
-      <c r="BM30" s="214"/>
-      <c r="BN30" s="187"/>
-      <c r="BO30" s="188"/>
-      <c r="BP30" s="188"/>
-      <c r="BQ30" s="188"/>
-      <c r="BR30" s="189"/>
-      <c r="BS30" s="187"/>
-      <c r="BT30" s="188"/>
-      <c r="BU30" s="188"/>
-      <c r="BV30" s="188"/>
-      <c r="BW30" s="189"/>
+      <c r="S30" s="191"/>
+      <c r="T30" s="192"/>
+      <c r="U30" s="193" t="s">
+        <v>12</v>
+      </c>
+      <c r="V30" s="189"/>
+      <c r="W30" s="189"/>
+      <c r="X30" s="189"/>
+      <c r="Y30" s="190"/>
+      <c r="Z30" s="188"/>
+      <c r="AA30" s="189"/>
+      <c r="AB30" s="189"/>
+      <c r="AC30" s="189"/>
+      <c r="AD30" s="189"/>
+      <c r="AE30" s="194"/>
+      <c r="AF30" s="193"/>
+      <c r="AG30" s="189"/>
+      <c r="AH30" s="189"/>
+      <c r="AI30" s="189"/>
+      <c r="AJ30" s="189"/>
+      <c r="AK30" s="189"/>
+      <c r="AL30" s="194"/>
+      <c r="AM30" s="209"/>
+      <c r="AN30" s="210"/>
+      <c r="AO30" s="210"/>
+      <c r="AP30" s="210"/>
+      <c r="AQ30" s="211"/>
+      <c r="AR30" s="201"/>
+      <c r="AS30" s="202"/>
+      <c r="AT30" s="202"/>
+      <c r="AU30" s="202"/>
+      <c r="AV30" s="203"/>
+      <c r="AW30" s="201"/>
+      <c r="AX30" s="202"/>
+      <c r="AY30" s="202"/>
+      <c r="AZ30" s="202"/>
+      <c r="BA30" s="203"/>
+      <c r="BB30" s="201"/>
+      <c r="BC30" s="202"/>
+      <c r="BD30" s="202"/>
+      <c r="BE30" s="202"/>
+      <c r="BF30" s="203"/>
+      <c r="BG30" s="225"/>
+      <c r="BH30" s="219"/>
+      <c r="BI30" s="219"/>
+      <c r="BJ30" s="219"/>
+      <c r="BK30" s="219"/>
+      <c r="BL30" s="219"/>
+      <c r="BM30" s="220"/>
+      <c r="BN30" s="201"/>
+      <c r="BO30" s="202"/>
+      <c r="BP30" s="202"/>
+      <c r="BQ30" s="202"/>
+      <c r="BR30" s="203"/>
+      <c r="BS30" s="201"/>
+      <c r="BT30" s="202"/>
+      <c r="BU30" s="202"/>
+      <c r="BV30" s="202"/>
+      <c r="BW30" s="203"/>
       <c r="BX30" s="14"/>
       <c r="BY30" s="14"/>
     </row>
@@ -12331,41 +12312,41 @@
       </c>
       <c r="C31" s="78"/>
       <c r="D31" s="78"/>
-      <c r="E31" s="215" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" s="216"/>
-      <c r="G31" s="216"/>
-      <c r="H31" s="216"/>
-      <c r="I31" s="216"/>
-      <c r="J31" s="216"/>
-      <c r="K31" s="217"/>
-      <c r="L31" s="179" t="s">
-        <v>59</v>
-      </c>
-      <c r="M31" s="180"/>
-      <c r="N31" s="181" t="s">
-        <v>17</v>
-      </c>
-      <c r="O31" s="177"/>
-      <c r="P31" s="177"/>
-      <c r="Q31" s="178"/>
+      <c r="E31" s="212" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="213"/>
+      <c r="G31" s="213"/>
+      <c r="H31" s="213"/>
+      <c r="I31" s="213"/>
+      <c r="J31" s="213"/>
+      <c r="K31" s="214"/>
+      <c r="L31" s="207" t="s">
+        <v>53</v>
+      </c>
+      <c r="M31" s="208"/>
+      <c r="N31" s="218" t="s">
+        <v>12</v>
+      </c>
+      <c r="O31" s="219"/>
+      <c r="P31" s="219"/>
+      <c r="Q31" s="226"/>
       <c r="R31" s="75"/>
-      <c r="S31" s="158"/>
-      <c r="T31" s="159"/>
-      <c r="U31" s="176" t="s">
-        <v>17</v>
-      </c>
-      <c r="V31" s="177"/>
-      <c r="W31" s="177"/>
-      <c r="X31" s="177"/>
-      <c r="Y31" s="178"/>
-      <c r="Z31" s="181"/>
-      <c r="AA31" s="177"/>
-      <c r="AB31" s="177"/>
-      <c r="AC31" s="177"/>
-      <c r="AD31" s="177"/>
-      <c r="AE31" s="214"/>
+      <c r="S31" s="191"/>
+      <c r="T31" s="192"/>
+      <c r="U31" s="225" t="s">
+        <v>12</v>
+      </c>
+      <c r="V31" s="219"/>
+      <c r="W31" s="219"/>
+      <c r="X31" s="219"/>
+      <c r="Y31" s="226"/>
+      <c r="Z31" s="218"/>
+      <c r="AA31" s="219"/>
+      <c r="AB31" s="219"/>
+      <c r="AC31" s="219"/>
+      <c r="AD31" s="219"/>
+      <c r="AE31" s="220"/>
       <c r="AF31" s="78"/>
       <c r="AG31" s="79"/>
       <c r="AH31" s="79"/>
@@ -12373,43 +12354,43 @@
       <c r="AJ31" s="79"/>
       <c r="AK31" s="79"/>
       <c r="AL31" s="80"/>
-      <c r="AM31" s="211"/>
-      <c r="AN31" s="212"/>
-      <c r="AO31" s="212"/>
-      <c r="AP31" s="212"/>
-      <c r="AQ31" s="213"/>
+      <c r="AM31" s="221"/>
+      <c r="AN31" s="222"/>
+      <c r="AO31" s="222"/>
+      <c r="AP31" s="222"/>
+      <c r="AQ31" s="223"/>
       <c r="AR31" s="81"/>
       <c r="AS31" s="82"/>
       <c r="AT31" s="82"/>
       <c r="AU31" s="82"/>
       <c r="AV31" s="83"/>
-      <c r="AW31" s="211"/>
-      <c r="AX31" s="212"/>
-      <c r="AY31" s="212"/>
-      <c r="AZ31" s="212"/>
-      <c r="BA31" s="213"/>
-      <c r="BB31" s="187"/>
-      <c r="BC31" s="188"/>
-      <c r="BD31" s="188"/>
-      <c r="BE31" s="188"/>
-      <c r="BF31" s="189"/>
-      <c r="BG31" s="176"/>
-      <c r="BH31" s="177"/>
-      <c r="BI31" s="177"/>
-      <c r="BJ31" s="177"/>
-      <c r="BK31" s="177"/>
-      <c r="BL31" s="177"/>
-      <c r="BM31" s="214"/>
-      <c r="BN31" s="187"/>
-      <c r="BO31" s="188"/>
-      <c r="BP31" s="188"/>
-      <c r="BQ31" s="188"/>
-      <c r="BR31" s="189"/>
-      <c r="BS31" s="187"/>
-      <c r="BT31" s="188"/>
-      <c r="BU31" s="188"/>
-      <c r="BV31" s="188"/>
-      <c r="BW31" s="189"/>
+      <c r="AW31" s="221"/>
+      <c r="AX31" s="222"/>
+      <c r="AY31" s="222"/>
+      <c r="AZ31" s="222"/>
+      <c r="BA31" s="223"/>
+      <c r="BB31" s="201"/>
+      <c r="BC31" s="202"/>
+      <c r="BD31" s="202"/>
+      <c r="BE31" s="202"/>
+      <c r="BF31" s="203"/>
+      <c r="BG31" s="225"/>
+      <c r="BH31" s="219"/>
+      <c r="BI31" s="219"/>
+      <c r="BJ31" s="219"/>
+      <c r="BK31" s="219"/>
+      <c r="BL31" s="219"/>
+      <c r="BM31" s="220"/>
+      <c r="BN31" s="201"/>
+      <c r="BO31" s="202"/>
+      <c r="BP31" s="202"/>
+      <c r="BQ31" s="202"/>
+      <c r="BR31" s="203"/>
+      <c r="BS31" s="201"/>
+      <c r="BT31" s="202"/>
+      <c r="BU31" s="202"/>
+      <c r="BV31" s="202"/>
+      <c r="BW31" s="203"/>
       <c r="BX31" s="14"/>
       <c r="BY31" s="14"/>
     </row>
@@ -12420,41 +12401,41 @@
       </c>
       <c r="C32" s="78"/>
       <c r="D32" s="78"/>
-      <c r="E32" s="215" t="s">
-        <v>83</v>
-      </c>
-      <c r="F32" s="216"/>
-      <c r="G32" s="216"/>
-      <c r="H32" s="216"/>
-      <c r="I32" s="216"/>
-      <c r="J32" s="216"/>
-      <c r="K32" s="217"/>
-      <c r="L32" s="179" t="s">
-        <v>59</v>
-      </c>
-      <c r="M32" s="180"/>
-      <c r="N32" s="181" t="s">
-        <v>17</v>
-      </c>
-      <c r="O32" s="177"/>
-      <c r="P32" s="177"/>
-      <c r="Q32" s="178"/>
+      <c r="E32" s="212" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32" s="213"/>
+      <c r="G32" s="213"/>
+      <c r="H32" s="213"/>
+      <c r="I32" s="213"/>
+      <c r="J32" s="213"/>
+      <c r="K32" s="214"/>
+      <c r="L32" s="207" t="s">
+        <v>53</v>
+      </c>
+      <c r="M32" s="208"/>
+      <c r="N32" s="218" t="s">
+        <v>12</v>
+      </c>
+      <c r="O32" s="219"/>
+      <c r="P32" s="219"/>
+      <c r="Q32" s="226"/>
       <c r="R32" s="75"/>
-      <c r="S32" s="158"/>
-      <c r="T32" s="159"/>
-      <c r="U32" s="176" t="s">
-        <v>17</v>
-      </c>
-      <c r="V32" s="177"/>
-      <c r="W32" s="177"/>
-      <c r="X32" s="177"/>
-      <c r="Y32" s="178"/>
-      <c r="Z32" s="181"/>
-      <c r="AA32" s="177"/>
-      <c r="AB32" s="177"/>
-      <c r="AC32" s="177"/>
-      <c r="AD32" s="177"/>
-      <c r="AE32" s="214"/>
+      <c r="S32" s="191"/>
+      <c r="T32" s="192"/>
+      <c r="U32" s="225" t="s">
+        <v>12</v>
+      </c>
+      <c r="V32" s="219"/>
+      <c r="W32" s="219"/>
+      <c r="X32" s="219"/>
+      <c r="Y32" s="226"/>
+      <c r="Z32" s="218"/>
+      <c r="AA32" s="219"/>
+      <c r="AB32" s="219"/>
+      <c r="AC32" s="219"/>
+      <c r="AD32" s="219"/>
+      <c r="AE32" s="220"/>
       <c r="AF32" s="78"/>
       <c r="AG32" s="79"/>
       <c r="AH32" s="79"/>
@@ -12462,43 +12443,43 @@
       <c r="AJ32" s="79"/>
       <c r="AK32" s="79"/>
       <c r="AL32" s="80"/>
-      <c r="AM32" s="211"/>
-      <c r="AN32" s="212"/>
-      <c r="AO32" s="212"/>
-      <c r="AP32" s="212"/>
-      <c r="AQ32" s="213"/>
+      <c r="AM32" s="221"/>
+      <c r="AN32" s="222"/>
+      <c r="AO32" s="222"/>
+      <c r="AP32" s="222"/>
+      <c r="AQ32" s="223"/>
       <c r="AR32" s="81"/>
       <c r="AS32" s="82"/>
       <c r="AT32" s="82"/>
       <c r="AU32" s="82"/>
       <c r="AV32" s="83"/>
-      <c r="AW32" s="211"/>
-      <c r="AX32" s="212"/>
-      <c r="AY32" s="212"/>
-      <c r="AZ32" s="212"/>
-      <c r="BA32" s="213"/>
-      <c r="BB32" s="187"/>
-      <c r="BC32" s="188"/>
-      <c r="BD32" s="188"/>
-      <c r="BE32" s="188"/>
-      <c r="BF32" s="189"/>
-      <c r="BG32" s="176"/>
-      <c r="BH32" s="177"/>
-      <c r="BI32" s="177"/>
-      <c r="BJ32" s="177"/>
-      <c r="BK32" s="177"/>
-      <c r="BL32" s="177"/>
-      <c r="BM32" s="214"/>
-      <c r="BN32" s="187"/>
-      <c r="BO32" s="188"/>
-      <c r="BP32" s="188"/>
-      <c r="BQ32" s="188"/>
-      <c r="BR32" s="189"/>
-      <c r="BS32" s="187"/>
-      <c r="BT32" s="188"/>
-      <c r="BU32" s="188"/>
-      <c r="BV32" s="188"/>
-      <c r="BW32" s="189"/>
+      <c r="AW32" s="221"/>
+      <c r="AX32" s="222"/>
+      <c r="AY32" s="222"/>
+      <c r="AZ32" s="222"/>
+      <c r="BA32" s="223"/>
+      <c r="BB32" s="201"/>
+      <c r="BC32" s="202"/>
+      <c r="BD32" s="202"/>
+      <c r="BE32" s="202"/>
+      <c r="BF32" s="203"/>
+      <c r="BG32" s="225"/>
+      <c r="BH32" s="219"/>
+      <c r="BI32" s="219"/>
+      <c r="BJ32" s="219"/>
+      <c r="BK32" s="219"/>
+      <c r="BL32" s="219"/>
+      <c r="BM32" s="220"/>
+      <c r="BN32" s="201"/>
+      <c r="BO32" s="202"/>
+      <c r="BP32" s="202"/>
+      <c r="BQ32" s="202"/>
+      <c r="BR32" s="203"/>
+      <c r="BS32" s="201"/>
+      <c r="BT32" s="202"/>
+      <c r="BU32" s="202"/>
+      <c r="BV32" s="202"/>
+      <c r="BW32" s="203"/>
       <c r="BX32" s="14"/>
       <c r="BY32" s="14"/>
     </row>
@@ -12509,39 +12490,39 @@
       </c>
       <c r="C33" s="78"/>
       <c r="D33" s="78"/>
-      <c r="E33" s="215" t="s">
-        <v>84</v>
-      </c>
-      <c r="F33" s="216"/>
-      <c r="G33" s="216"/>
-      <c r="H33" s="216"/>
-      <c r="I33" s="216"/>
-      <c r="J33" s="216"/>
-      <c r="K33" s="217"/>
-      <c r="L33" s="179" t="s">
-        <v>59</v>
-      </c>
-      <c r="M33" s="180"/>
-      <c r="N33" s="181" t="s">
-        <v>17</v>
-      </c>
-      <c r="O33" s="177"/>
-      <c r="P33" s="177"/>
-      <c r="Q33" s="178"/>
+      <c r="E33" s="212" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="213"/>
+      <c r="G33" s="213"/>
+      <c r="H33" s="213"/>
+      <c r="I33" s="213"/>
+      <c r="J33" s="213"/>
+      <c r="K33" s="214"/>
+      <c r="L33" s="207" t="s">
+        <v>53</v>
+      </c>
+      <c r="M33" s="208"/>
+      <c r="N33" s="218" t="s">
+        <v>12</v>
+      </c>
+      <c r="O33" s="219"/>
+      <c r="P33" s="219"/>
+      <c r="Q33" s="226"/>
       <c r="R33" s="75"/>
-      <c r="S33" s="158"/>
-      <c r="T33" s="159"/>
-      <c r="U33" s="176"/>
-      <c r="V33" s="177"/>
-      <c r="W33" s="177"/>
-      <c r="X33" s="177"/>
-      <c r="Y33" s="178"/>
-      <c r="Z33" s="181"/>
-      <c r="AA33" s="177"/>
-      <c r="AB33" s="177"/>
-      <c r="AC33" s="177"/>
-      <c r="AD33" s="177"/>
-      <c r="AE33" s="214"/>
+      <c r="S33" s="191"/>
+      <c r="T33" s="192"/>
+      <c r="U33" s="225"/>
+      <c r="V33" s="219"/>
+      <c r="W33" s="219"/>
+      <c r="X33" s="219"/>
+      <c r="Y33" s="226"/>
+      <c r="Z33" s="218"/>
+      <c r="AA33" s="219"/>
+      <c r="AB33" s="219"/>
+      <c r="AC33" s="219"/>
+      <c r="AD33" s="219"/>
+      <c r="AE33" s="220"/>
       <c r="AF33" s="78"/>
       <c r="AG33" s="79"/>
       <c r="AH33" s="79"/>
@@ -12549,43 +12530,43 @@
       <c r="AJ33" s="79"/>
       <c r="AK33" s="79"/>
       <c r="AL33" s="80"/>
-      <c r="AM33" s="211"/>
-      <c r="AN33" s="212"/>
-      <c r="AO33" s="212"/>
-      <c r="AP33" s="212"/>
-      <c r="AQ33" s="213"/>
+      <c r="AM33" s="221"/>
+      <c r="AN33" s="222"/>
+      <c r="AO33" s="222"/>
+      <c r="AP33" s="222"/>
+      <c r="AQ33" s="223"/>
       <c r="AR33" s="81"/>
       <c r="AS33" s="82"/>
       <c r="AT33" s="82"/>
       <c r="AU33" s="82"/>
       <c r="AV33" s="83"/>
-      <c r="AW33" s="211"/>
-      <c r="AX33" s="212"/>
-      <c r="AY33" s="212"/>
-      <c r="AZ33" s="212"/>
-      <c r="BA33" s="213"/>
-      <c r="BB33" s="187"/>
-      <c r="BC33" s="188"/>
-      <c r="BD33" s="188"/>
-      <c r="BE33" s="188"/>
-      <c r="BF33" s="189"/>
-      <c r="BG33" s="176"/>
-      <c r="BH33" s="177"/>
-      <c r="BI33" s="177"/>
-      <c r="BJ33" s="177"/>
-      <c r="BK33" s="177"/>
-      <c r="BL33" s="177"/>
-      <c r="BM33" s="214"/>
-      <c r="BN33" s="187"/>
-      <c r="BO33" s="188"/>
-      <c r="BP33" s="188"/>
-      <c r="BQ33" s="188"/>
-      <c r="BR33" s="189"/>
-      <c r="BS33" s="187"/>
-      <c r="BT33" s="188"/>
-      <c r="BU33" s="188"/>
-      <c r="BV33" s="188"/>
-      <c r="BW33" s="189"/>
+      <c r="AW33" s="221"/>
+      <c r="AX33" s="222"/>
+      <c r="AY33" s="222"/>
+      <c r="AZ33" s="222"/>
+      <c r="BA33" s="223"/>
+      <c r="BB33" s="201"/>
+      <c r="BC33" s="202"/>
+      <c r="BD33" s="202"/>
+      <c r="BE33" s="202"/>
+      <c r="BF33" s="203"/>
+      <c r="BG33" s="225"/>
+      <c r="BH33" s="219"/>
+      <c r="BI33" s="219"/>
+      <c r="BJ33" s="219"/>
+      <c r="BK33" s="219"/>
+      <c r="BL33" s="219"/>
+      <c r="BM33" s="220"/>
+      <c r="BN33" s="201"/>
+      <c r="BO33" s="202"/>
+      <c r="BP33" s="202"/>
+      <c r="BQ33" s="202"/>
+      <c r="BR33" s="203"/>
+      <c r="BS33" s="201"/>
+      <c r="BT33" s="202"/>
+      <c r="BU33" s="202"/>
+      <c r="BV33" s="202"/>
+      <c r="BW33" s="203"/>
       <c r="BX33" s="14"/>
       <c r="BY33" s="14"/>
     </row>
@@ -12596,39 +12577,39 @@
       </c>
       <c r="C34" s="78"/>
       <c r="D34" s="78"/>
-      <c r="E34" s="215" t="s">
-        <v>91</v>
-      </c>
-      <c r="F34" s="216"/>
-      <c r="G34" s="216"/>
-      <c r="H34" s="216"/>
-      <c r="I34" s="216"/>
-      <c r="J34" s="216"/>
-      <c r="K34" s="217"/>
-      <c r="L34" s="179"/>
-      <c r="M34" s="180"/>
-      <c r="N34" s="181" t="s">
-        <v>17</v>
-      </c>
-      <c r="O34" s="177"/>
-      <c r="P34" s="177"/>
-      <c r="Q34" s="178"/>
+      <c r="E34" s="212" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" s="213"/>
+      <c r="G34" s="213"/>
+      <c r="H34" s="213"/>
+      <c r="I34" s="213"/>
+      <c r="J34" s="213"/>
+      <c r="K34" s="214"/>
+      <c r="L34" s="207"/>
+      <c r="M34" s="208"/>
+      <c r="N34" s="218" t="s">
+        <v>12</v>
+      </c>
+      <c r="O34" s="219"/>
+      <c r="P34" s="219"/>
+      <c r="Q34" s="226"/>
       <c r="R34" s="75"/>
-      <c r="S34" s="158"/>
-      <c r="T34" s="159"/>
-      <c r="U34" s="176" t="s">
-        <v>17</v>
-      </c>
-      <c r="V34" s="177"/>
-      <c r="W34" s="177"/>
-      <c r="X34" s="177"/>
-      <c r="Y34" s="178"/>
-      <c r="Z34" s="181"/>
-      <c r="AA34" s="177"/>
-      <c r="AB34" s="177"/>
-      <c r="AC34" s="177"/>
-      <c r="AD34" s="177"/>
-      <c r="AE34" s="214"/>
+      <c r="S34" s="191"/>
+      <c r="T34" s="192"/>
+      <c r="U34" s="225" t="s">
+        <v>12</v>
+      </c>
+      <c r="V34" s="219"/>
+      <c r="W34" s="219"/>
+      <c r="X34" s="219"/>
+      <c r="Y34" s="226"/>
+      <c r="Z34" s="218"/>
+      <c r="AA34" s="219"/>
+      <c r="AB34" s="219"/>
+      <c r="AC34" s="219"/>
+      <c r="AD34" s="219"/>
+      <c r="AE34" s="220"/>
       <c r="AF34" s="78"/>
       <c r="AG34" s="79"/>
       <c r="AH34" s="79"/>
@@ -12636,43 +12617,43 @@
       <c r="AJ34" s="79"/>
       <c r="AK34" s="79"/>
       <c r="AL34" s="80"/>
-      <c r="AM34" s="211"/>
-      <c r="AN34" s="212"/>
-      <c r="AO34" s="212"/>
-      <c r="AP34" s="212"/>
-      <c r="AQ34" s="213"/>
+      <c r="AM34" s="221"/>
+      <c r="AN34" s="222"/>
+      <c r="AO34" s="222"/>
+      <c r="AP34" s="222"/>
+      <c r="AQ34" s="223"/>
       <c r="AR34" s="81"/>
       <c r="AS34" s="82"/>
       <c r="AT34" s="82"/>
       <c r="AU34" s="82"/>
       <c r="AV34" s="83"/>
-      <c r="AW34" s="211"/>
-      <c r="AX34" s="212"/>
-      <c r="AY34" s="212"/>
-      <c r="AZ34" s="212"/>
-      <c r="BA34" s="213"/>
-      <c r="BB34" s="187"/>
-      <c r="BC34" s="188"/>
-      <c r="BD34" s="188"/>
-      <c r="BE34" s="188"/>
-      <c r="BF34" s="189"/>
-      <c r="BG34" s="176"/>
-      <c r="BH34" s="177"/>
-      <c r="BI34" s="177"/>
-      <c r="BJ34" s="177"/>
-      <c r="BK34" s="177"/>
-      <c r="BL34" s="177"/>
-      <c r="BM34" s="214"/>
-      <c r="BN34" s="187"/>
-      <c r="BO34" s="188"/>
-      <c r="BP34" s="188"/>
-      <c r="BQ34" s="188"/>
-      <c r="BR34" s="189"/>
-      <c r="BS34" s="187"/>
-      <c r="BT34" s="188"/>
-      <c r="BU34" s="188"/>
-      <c r="BV34" s="188"/>
-      <c r="BW34" s="189"/>
+      <c r="AW34" s="221"/>
+      <c r="AX34" s="222"/>
+      <c r="AY34" s="222"/>
+      <c r="AZ34" s="222"/>
+      <c r="BA34" s="223"/>
+      <c r="BB34" s="201"/>
+      <c r="BC34" s="202"/>
+      <c r="BD34" s="202"/>
+      <c r="BE34" s="202"/>
+      <c r="BF34" s="203"/>
+      <c r="BG34" s="225"/>
+      <c r="BH34" s="219"/>
+      <c r="BI34" s="219"/>
+      <c r="BJ34" s="219"/>
+      <c r="BK34" s="219"/>
+      <c r="BL34" s="219"/>
+      <c r="BM34" s="220"/>
+      <c r="BN34" s="201"/>
+      <c r="BO34" s="202"/>
+      <c r="BP34" s="202"/>
+      <c r="BQ34" s="202"/>
+      <c r="BR34" s="203"/>
+      <c r="BS34" s="201"/>
+      <c r="BT34" s="202"/>
+      <c r="BU34" s="202"/>
+      <c r="BV34" s="202"/>
+      <c r="BW34" s="203"/>
       <c r="BX34" s="14"/>
       <c r="BY34" s="14"/>
     </row>
@@ -12683,39 +12664,39 @@
       </c>
       <c r="C35" s="78"/>
       <c r="D35" s="78"/>
-      <c r="E35" s="215" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="216"/>
-      <c r="G35" s="216"/>
-      <c r="H35" s="216"/>
-      <c r="I35" s="216"/>
-      <c r="J35" s="216"/>
-      <c r="K35" s="217"/>
-      <c r="L35" s="179"/>
-      <c r="M35" s="180"/>
-      <c r="N35" s="181" t="s">
-        <v>17</v>
-      </c>
-      <c r="O35" s="177"/>
-      <c r="P35" s="177"/>
-      <c r="Q35" s="178"/>
+      <c r="E35" s="212" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="213"/>
+      <c r="G35" s="213"/>
+      <c r="H35" s="213"/>
+      <c r="I35" s="213"/>
+      <c r="J35" s="213"/>
+      <c r="K35" s="214"/>
+      <c r="L35" s="207"/>
+      <c r="M35" s="208"/>
+      <c r="N35" s="218" t="s">
+        <v>12</v>
+      </c>
+      <c r="O35" s="219"/>
+      <c r="P35" s="219"/>
+      <c r="Q35" s="226"/>
       <c r="R35" s="75"/>
-      <c r="S35" s="158"/>
-      <c r="T35" s="159"/>
-      <c r="U35" s="176" t="s">
-        <v>17</v>
-      </c>
-      <c r="V35" s="177"/>
-      <c r="W35" s="177"/>
-      <c r="X35" s="177"/>
-      <c r="Y35" s="178"/>
-      <c r="Z35" s="181"/>
-      <c r="AA35" s="177"/>
-      <c r="AB35" s="177"/>
-      <c r="AC35" s="177"/>
-      <c r="AD35" s="177"/>
-      <c r="AE35" s="214"/>
+      <c r="S35" s="191"/>
+      <c r="T35" s="192"/>
+      <c r="U35" s="225" t="s">
+        <v>12</v>
+      </c>
+      <c r="V35" s="219"/>
+      <c r="W35" s="219"/>
+      <c r="X35" s="219"/>
+      <c r="Y35" s="226"/>
+      <c r="Z35" s="218"/>
+      <c r="AA35" s="219"/>
+      <c r="AB35" s="219"/>
+      <c r="AC35" s="219"/>
+      <c r="AD35" s="219"/>
+      <c r="AE35" s="220"/>
       <c r="AF35" s="78"/>
       <c r="AG35" s="79"/>
       <c r="AH35" s="79"/>
@@ -12723,43 +12704,43 @@
       <c r="AJ35" s="79"/>
       <c r="AK35" s="79"/>
       <c r="AL35" s="80"/>
-      <c r="AM35" s="211"/>
-      <c r="AN35" s="212"/>
-      <c r="AO35" s="212"/>
-      <c r="AP35" s="212"/>
-      <c r="AQ35" s="213"/>
+      <c r="AM35" s="221"/>
+      <c r="AN35" s="222"/>
+      <c r="AO35" s="222"/>
+      <c r="AP35" s="222"/>
+      <c r="AQ35" s="223"/>
       <c r="AR35" s="81"/>
       <c r="AS35" s="82"/>
       <c r="AT35" s="82"/>
       <c r="AU35" s="82"/>
       <c r="AV35" s="83"/>
-      <c r="AW35" s="211"/>
-      <c r="AX35" s="212"/>
-      <c r="AY35" s="212"/>
-      <c r="AZ35" s="212"/>
-      <c r="BA35" s="213"/>
-      <c r="BB35" s="187"/>
-      <c r="BC35" s="188"/>
-      <c r="BD35" s="188"/>
-      <c r="BE35" s="188"/>
-      <c r="BF35" s="189"/>
-      <c r="BG35" s="176"/>
-      <c r="BH35" s="177"/>
-      <c r="BI35" s="177"/>
-      <c r="BJ35" s="177"/>
-      <c r="BK35" s="177"/>
-      <c r="BL35" s="177"/>
-      <c r="BM35" s="214"/>
-      <c r="BN35" s="187"/>
-      <c r="BO35" s="188"/>
-      <c r="BP35" s="188"/>
-      <c r="BQ35" s="188"/>
-      <c r="BR35" s="189"/>
-      <c r="BS35" s="187"/>
-      <c r="BT35" s="188"/>
-      <c r="BU35" s="188"/>
-      <c r="BV35" s="188"/>
-      <c r="BW35" s="189"/>
+      <c r="AW35" s="221"/>
+      <c r="AX35" s="222"/>
+      <c r="AY35" s="222"/>
+      <c r="AZ35" s="222"/>
+      <c r="BA35" s="223"/>
+      <c r="BB35" s="201"/>
+      <c r="BC35" s="202"/>
+      <c r="BD35" s="202"/>
+      <c r="BE35" s="202"/>
+      <c r="BF35" s="203"/>
+      <c r="BG35" s="225"/>
+      <c r="BH35" s="219"/>
+      <c r="BI35" s="219"/>
+      <c r="BJ35" s="219"/>
+      <c r="BK35" s="219"/>
+      <c r="BL35" s="219"/>
+      <c r="BM35" s="220"/>
+      <c r="BN35" s="201"/>
+      <c r="BO35" s="202"/>
+      <c r="BP35" s="202"/>
+      <c r="BQ35" s="202"/>
+      <c r="BR35" s="203"/>
+      <c r="BS35" s="201"/>
+      <c r="BT35" s="202"/>
+      <c r="BU35" s="202"/>
+      <c r="BV35" s="202"/>
+      <c r="BW35" s="203"/>
       <c r="BX35" s="14"/>
       <c r="BY35" s="14"/>
     </row>
@@ -12770,39 +12751,39 @@
       </c>
       <c r="C36" s="84"/>
       <c r="D36" s="84"/>
-      <c r="E36" s="202" t="s">
-        <v>85</v>
-      </c>
-      <c r="F36" s="203"/>
-      <c r="G36" s="203"/>
-      <c r="H36" s="203"/>
-      <c r="I36" s="203"/>
-      <c r="J36" s="203"/>
-      <c r="K36" s="204"/>
-      <c r="L36" s="205"/>
-      <c r="M36" s="206"/>
-      <c r="N36" s="207" t="s">
-        <v>86</v>
-      </c>
-      <c r="O36" s="200"/>
-      <c r="P36" s="200"/>
-      <c r="Q36" s="208"/>
+      <c r="E36" s="236" t="s">
+        <v>79</v>
+      </c>
+      <c r="F36" s="237"/>
+      <c r="G36" s="237"/>
+      <c r="H36" s="237"/>
+      <c r="I36" s="237"/>
+      <c r="J36" s="237"/>
+      <c r="K36" s="238"/>
+      <c r="L36" s="239"/>
+      <c r="M36" s="240"/>
+      <c r="N36" s="241" t="s">
+        <v>80</v>
+      </c>
+      <c r="O36" s="234"/>
+      <c r="P36" s="234"/>
+      <c r="Q36" s="242"/>
       <c r="R36" s="85"/>
-      <c r="S36" s="209"/>
-      <c r="T36" s="210"/>
-      <c r="U36" s="199" t="s">
-        <v>64</v>
-      </c>
-      <c r="V36" s="200"/>
-      <c r="W36" s="200"/>
-      <c r="X36" s="200"/>
-      <c r="Y36" s="208"/>
-      <c r="Z36" s="207"/>
-      <c r="AA36" s="200"/>
-      <c r="AB36" s="200"/>
-      <c r="AC36" s="200"/>
-      <c r="AD36" s="200"/>
-      <c r="AE36" s="201"/>
+      <c r="S36" s="243"/>
+      <c r="T36" s="244"/>
+      <c r="U36" s="233" t="s">
+        <v>58</v>
+      </c>
+      <c r="V36" s="234"/>
+      <c r="W36" s="234"/>
+      <c r="X36" s="234"/>
+      <c r="Y36" s="242"/>
+      <c r="Z36" s="241"/>
+      <c r="AA36" s="234"/>
+      <c r="AB36" s="234"/>
+      <c r="AC36" s="234"/>
+      <c r="AD36" s="234"/>
+      <c r="AE36" s="235"/>
       <c r="AF36" s="84"/>
       <c r="AG36" s="86"/>
       <c r="AH36" s="86"/>
@@ -12810,82 +12791,256 @@
       <c r="AJ36" s="86"/>
       <c r="AK36" s="86"/>
       <c r="AL36" s="87"/>
-      <c r="AM36" s="193"/>
-      <c r="AN36" s="194"/>
-      <c r="AO36" s="194"/>
-      <c r="AP36" s="194"/>
-      <c r="AQ36" s="195"/>
+      <c r="AM36" s="227"/>
+      <c r="AN36" s="228"/>
+      <c r="AO36" s="228"/>
+      <c r="AP36" s="228"/>
+      <c r="AQ36" s="229"/>
       <c r="AR36" s="88"/>
       <c r="AS36" s="89"/>
       <c r="AT36" s="89"/>
       <c r="AU36" s="89"/>
       <c r="AV36" s="90"/>
-      <c r="AW36" s="193"/>
-      <c r="AX36" s="194"/>
-      <c r="AY36" s="194"/>
-      <c r="AZ36" s="194"/>
-      <c r="BA36" s="195"/>
-      <c r="BB36" s="196"/>
-      <c r="BC36" s="197"/>
-      <c r="BD36" s="197"/>
-      <c r="BE36" s="197"/>
-      <c r="BF36" s="198"/>
-      <c r="BG36" s="199"/>
-      <c r="BH36" s="200"/>
-      <c r="BI36" s="200"/>
-      <c r="BJ36" s="200"/>
-      <c r="BK36" s="200"/>
-      <c r="BL36" s="200"/>
-      <c r="BM36" s="201"/>
-      <c r="BN36" s="196"/>
-      <c r="BO36" s="197"/>
-      <c r="BP36" s="197"/>
-      <c r="BQ36" s="197"/>
-      <c r="BR36" s="198"/>
-      <c r="BS36" s="196"/>
-      <c r="BT36" s="197"/>
-      <c r="BU36" s="197"/>
-      <c r="BV36" s="197"/>
-      <c r="BW36" s="198"/>
+      <c r="AW36" s="227"/>
+      <c r="AX36" s="228"/>
+      <c r="AY36" s="228"/>
+      <c r="AZ36" s="228"/>
+      <c r="BA36" s="229"/>
+      <c r="BB36" s="230"/>
+      <c r="BC36" s="231"/>
+      <c r="BD36" s="231"/>
+      <c r="BE36" s="231"/>
+      <c r="BF36" s="232"/>
+      <c r="BG36" s="233"/>
+      <c r="BH36" s="234"/>
+      <c r="BI36" s="234"/>
+      <c r="BJ36" s="234"/>
+      <c r="BK36" s="234"/>
+      <c r="BL36" s="234"/>
+      <c r="BM36" s="235"/>
+      <c r="BN36" s="230"/>
+      <c r="BO36" s="231"/>
+      <c r="BP36" s="231"/>
+      <c r="BQ36" s="231"/>
+      <c r="BR36" s="232"/>
+      <c r="BS36" s="230"/>
+      <c r="BT36" s="231"/>
+      <c r="BU36" s="231"/>
+      <c r="BV36" s="231"/>
+      <c r="BW36" s="232"/>
       <c r="BX36" s="91"/>
       <c r="BY36" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="266">
-    <mergeCell ref="BD2:BF3"/>
-    <mergeCell ref="BG2:BJ3"/>
-    <mergeCell ref="U4:AE5"/>
-    <mergeCell ref="AM4:AQ5"/>
-    <mergeCell ref="AW4:AY5"/>
-    <mergeCell ref="AZ4:BC5"/>
-    <mergeCell ref="BD4:BF5"/>
-    <mergeCell ref="BG4:BJ5"/>
-    <mergeCell ref="B2:K5"/>
-    <mergeCell ref="L2:T5"/>
-    <mergeCell ref="U2:AE3"/>
-    <mergeCell ref="AM2:AQ3"/>
-    <mergeCell ref="AW2:AY3"/>
-    <mergeCell ref="AZ2:BC3"/>
-    <mergeCell ref="BS18:BW18"/>
-    <mergeCell ref="N18:Q18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:Y18"/>
-    <mergeCell ref="Z18:AE18"/>
-    <mergeCell ref="AF18:AL18"/>
-    <mergeCell ref="AM18:AQ18"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="U19:Y19"/>
-    <mergeCell ref="Z19:AE19"/>
-    <mergeCell ref="AR18:AV18"/>
-    <mergeCell ref="AW18:BA18"/>
-    <mergeCell ref="BB18:BF18"/>
-    <mergeCell ref="BG18:BM18"/>
-    <mergeCell ref="BN18:BR18"/>
+    <mergeCell ref="AA26:AE26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="AM26:AQ26"/>
+    <mergeCell ref="AX26:BA26"/>
+    <mergeCell ref="BB26:BF26"/>
+    <mergeCell ref="BG26:BM26"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="E18:K18"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="U26:Y26"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:Y25"/>
+    <mergeCell ref="Z25:AE25"/>
+    <mergeCell ref="AR24:AV24"/>
+    <mergeCell ref="AW24:BA24"/>
+    <mergeCell ref="BB24:BF24"/>
+    <mergeCell ref="BG24:BM24"/>
+    <mergeCell ref="AR22:AV22"/>
+    <mergeCell ref="AW22:BA22"/>
+    <mergeCell ref="BB22:BF22"/>
+    <mergeCell ref="BG22:BM22"/>
+    <mergeCell ref="AM36:AQ36"/>
+    <mergeCell ref="AW36:BA36"/>
+    <mergeCell ref="BB36:BF36"/>
+    <mergeCell ref="BG36:BM36"/>
+    <mergeCell ref="BN36:BR36"/>
+    <mergeCell ref="BS36:BW36"/>
+    <mergeCell ref="E36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:Y36"/>
+    <mergeCell ref="Z36:AE36"/>
+    <mergeCell ref="AM35:AQ35"/>
+    <mergeCell ref="AW35:BA35"/>
+    <mergeCell ref="BB35:BF35"/>
+    <mergeCell ref="BG35:BM35"/>
+    <mergeCell ref="BN35:BR35"/>
+    <mergeCell ref="BS35:BW35"/>
+    <mergeCell ref="E35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:Q35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="U35:Y35"/>
+    <mergeCell ref="Z35:AE35"/>
+    <mergeCell ref="BG34:BM34"/>
+    <mergeCell ref="BN34:BR34"/>
+    <mergeCell ref="BS34:BW34"/>
+    <mergeCell ref="E34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:Y34"/>
+    <mergeCell ref="Z34:AE34"/>
+    <mergeCell ref="E33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:Y33"/>
+    <mergeCell ref="Z33:AE33"/>
+    <mergeCell ref="AM34:AQ34"/>
+    <mergeCell ref="AW34:BA34"/>
+    <mergeCell ref="BB34:BF34"/>
+    <mergeCell ref="BN32:BR32"/>
+    <mergeCell ref="BS32:BW32"/>
+    <mergeCell ref="BB31:BF31"/>
+    <mergeCell ref="BG31:BM31"/>
+    <mergeCell ref="BN31:BR31"/>
+    <mergeCell ref="BS31:BW31"/>
+    <mergeCell ref="AM33:AQ33"/>
+    <mergeCell ref="AW33:BA33"/>
+    <mergeCell ref="BB33:BF33"/>
+    <mergeCell ref="BG33:BM33"/>
+    <mergeCell ref="BN33:BR33"/>
+    <mergeCell ref="BS33:BW33"/>
+    <mergeCell ref="AF30:AL30"/>
+    <mergeCell ref="AM30:AQ30"/>
+    <mergeCell ref="AR30:AV30"/>
+    <mergeCell ref="AW30:BA30"/>
+    <mergeCell ref="BB30:BF30"/>
+    <mergeCell ref="BG30:BM30"/>
+    <mergeCell ref="AM32:AQ32"/>
+    <mergeCell ref="AW32:BA32"/>
+    <mergeCell ref="BB32:BF32"/>
+    <mergeCell ref="BG32:BM32"/>
+    <mergeCell ref="BN29:BR29"/>
+    <mergeCell ref="BS29:BW29"/>
+    <mergeCell ref="E30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="U30:Y30"/>
+    <mergeCell ref="Z30:AE30"/>
+    <mergeCell ref="E32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:Y32"/>
+    <mergeCell ref="Z32:AE32"/>
+    <mergeCell ref="BN30:BR30"/>
+    <mergeCell ref="BS30:BW30"/>
+    <mergeCell ref="E31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:Q31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="U31:Y31"/>
+    <mergeCell ref="Z31:AE31"/>
+    <mergeCell ref="AM31:AQ31"/>
+    <mergeCell ref="AW31:BA31"/>
+    <mergeCell ref="BN28:BR28"/>
+    <mergeCell ref="BS28:BW28"/>
+    <mergeCell ref="E29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="U29:Y29"/>
+    <mergeCell ref="Z29:AE29"/>
+    <mergeCell ref="AM29:AQ29"/>
+    <mergeCell ref="AW29:BA29"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AM28:AQ28"/>
+    <mergeCell ref="AR28:AV28"/>
+    <mergeCell ref="AW28:BA28"/>
+    <mergeCell ref="BB28:BF28"/>
+    <mergeCell ref="BG28:BM28"/>
+    <mergeCell ref="E28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:Y28"/>
+    <mergeCell ref="Z28:AE28"/>
+    <mergeCell ref="BB29:BF29"/>
+    <mergeCell ref="BG29:BM29"/>
+    <mergeCell ref="AR27:AV27"/>
+    <mergeCell ref="AW27:BA27"/>
+    <mergeCell ref="BB27:BF27"/>
+    <mergeCell ref="BG27:BM27"/>
+    <mergeCell ref="BN27:BR27"/>
+    <mergeCell ref="BS27:BW27"/>
+    <mergeCell ref="BN25:BR25"/>
+    <mergeCell ref="BS25:BW25"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:Q27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:Y27"/>
+    <mergeCell ref="Z27:AE27"/>
+    <mergeCell ref="AF27:AL27"/>
+    <mergeCell ref="AM27:AQ27"/>
+    <mergeCell ref="AF25:AL25"/>
+    <mergeCell ref="AM25:AQ25"/>
+    <mergeCell ref="AR25:AV25"/>
+    <mergeCell ref="AW25:BA25"/>
+    <mergeCell ref="BB25:BF25"/>
+    <mergeCell ref="BG25:BM25"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="BN24:BR24"/>
+    <mergeCell ref="BS24:BW24"/>
+    <mergeCell ref="BN23:BR23"/>
+    <mergeCell ref="BS23:BW23"/>
+    <mergeCell ref="E24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:Y24"/>
+    <mergeCell ref="Z24:AE24"/>
+    <mergeCell ref="AF24:AL24"/>
+    <mergeCell ref="AM24:AQ24"/>
+    <mergeCell ref="AF23:AL23"/>
+    <mergeCell ref="AM23:AQ23"/>
+    <mergeCell ref="AR23:AV23"/>
+    <mergeCell ref="AW23:BA23"/>
+    <mergeCell ref="BB23:BF23"/>
+    <mergeCell ref="BG23:BM23"/>
+    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:Y23"/>
+    <mergeCell ref="Z23:AE23"/>
+    <mergeCell ref="BN22:BR22"/>
+    <mergeCell ref="BS22:BW22"/>
+    <mergeCell ref="BN21:BR21"/>
+    <mergeCell ref="BS21:BW21"/>
+    <mergeCell ref="E22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:Y22"/>
+    <mergeCell ref="Z22:AE22"/>
+    <mergeCell ref="AF22:AL22"/>
+    <mergeCell ref="AM22:AQ22"/>
+    <mergeCell ref="AF21:AL21"/>
+    <mergeCell ref="AM21:AQ21"/>
+    <mergeCell ref="AR21:AV21"/>
+    <mergeCell ref="AW21:BA21"/>
+    <mergeCell ref="BB21:BF21"/>
+    <mergeCell ref="BG21:BM21"/>
+    <mergeCell ref="E21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:Y21"/>
+    <mergeCell ref="Z21:AE21"/>
     <mergeCell ref="AR20:AV20"/>
     <mergeCell ref="AW20:BA20"/>
     <mergeCell ref="BB20:BF20"/>
@@ -12910,214 +13065,40 @@
     <mergeCell ref="BG19:BM19"/>
     <mergeCell ref="E19:K19"/>
     <mergeCell ref="L19:M19"/>
-    <mergeCell ref="BN22:BR22"/>
-    <mergeCell ref="BS22:BW22"/>
-    <mergeCell ref="BN21:BR21"/>
-    <mergeCell ref="BS21:BW21"/>
-    <mergeCell ref="E22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:Y22"/>
-    <mergeCell ref="Z22:AE22"/>
-    <mergeCell ref="AF22:AL22"/>
-    <mergeCell ref="AM22:AQ22"/>
-    <mergeCell ref="AF21:AL21"/>
-    <mergeCell ref="AM21:AQ21"/>
-    <mergeCell ref="AR21:AV21"/>
-    <mergeCell ref="AW21:BA21"/>
-    <mergeCell ref="BB21:BF21"/>
-    <mergeCell ref="BG21:BM21"/>
-    <mergeCell ref="E21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:Y21"/>
-    <mergeCell ref="Z21:AE21"/>
-    <mergeCell ref="BN24:BR24"/>
-    <mergeCell ref="BS24:BW24"/>
-    <mergeCell ref="BN23:BR23"/>
-    <mergeCell ref="BS23:BW23"/>
-    <mergeCell ref="E24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:Y24"/>
-    <mergeCell ref="Z24:AE24"/>
-    <mergeCell ref="AF24:AL24"/>
-    <mergeCell ref="AM24:AQ24"/>
-    <mergeCell ref="AF23:AL23"/>
-    <mergeCell ref="AM23:AQ23"/>
-    <mergeCell ref="AR23:AV23"/>
-    <mergeCell ref="AW23:BA23"/>
-    <mergeCell ref="BB23:BF23"/>
-    <mergeCell ref="BG23:BM23"/>
-    <mergeCell ref="E23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U23:Y23"/>
-    <mergeCell ref="Z23:AE23"/>
-    <mergeCell ref="AR27:AV27"/>
-    <mergeCell ref="AW27:BA27"/>
-    <mergeCell ref="BB27:BF27"/>
-    <mergeCell ref="BG27:BM27"/>
-    <mergeCell ref="BN27:BR27"/>
-    <mergeCell ref="BS27:BW27"/>
-    <mergeCell ref="BN25:BR25"/>
-    <mergeCell ref="BS25:BW25"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:Q27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:Y27"/>
-    <mergeCell ref="Z27:AE27"/>
-    <mergeCell ref="AF27:AL27"/>
-    <mergeCell ref="AM27:AQ27"/>
-    <mergeCell ref="AF25:AL25"/>
-    <mergeCell ref="AM25:AQ25"/>
-    <mergeCell ref="AR25:AV25"/>
-    <mergeCell ref="AW25:BA25"/>
-    <mergeCell ref="BB25:BF25"/>
-    <mergeCell ref="BG25:BM25"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="BN28:BR28"/>
-    <mergeCell ref="BS28:BW28"/>
-    <mergeCell ref="E29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:Q29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="U29:Y29"/>
-    <mergeCell ref="Z29:AE29"/>
-    <mergeCell ref="AM29:AQ29"/>
-    <mergeCell ref="AW29:BA29"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AM28:AQ28"/>
-    <mergeCell ref="AR28:AV28"/>
-    <mergeCell ref="AW28:BA28"/>
-    <mergeCell ref="BB28:BF28"/>
-    <mergeCell ref="BG28:BM28"/>
-    <mergeCell ref="E28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:Y28"/>
-    <mergeCell ref="Z28:AE28"/>
-    <mergeCell ref="BB29:BF29"/>
-    <mergeCell ref="BG29:BM29"/>
-    <mergeCell ref="BN29:BR29"/>
-    <mergeCell ref="BS29:BW29"/>
-    <mergeCell ref="E30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="U30:Y30"/>
-    <mergeCell ref="Z30:AE30"/>
-    <mergeCell ref="E32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:Y32"/>
-    <mergeCell ref="Z32:AE32"/>
-    <mergeCell ref="BN30:BR30"/>
-    <mergeCell ref="BS30:BW30"/>
-    <mergeCell ref="E31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:Q31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="U31:Y31"/>
-    <mergeCell ref="Z31:AE31"/>
-    <mergeCell ref="AM31:AQ31"/>
-    <mergeCell ref="AW31:BA31"/>
-    <mergeCell ref="AF30:AL30"/>
-    <mergeCell ref="AM30:AQ30"/>
-    <mergeCell ref="AR30:AV30"/>
-    <mergeCell ref="AW30:BA30"/>
-    <mergeCell ref="BB30:BF30"/>
-    <mergeCell ref="BG30:BM30"/>
-    <mergeCell ref="AM32:AQ32"/>
-    <mergeCell ref="AW32:BA32"/>
-    <mergeCell ref="BB32:BF32"/>
-    <mergeCell ref="BG32:BM32"/>
-    <mergeCell ref="BN32:BR32"/>
-    <mergeCell ref="BS32:BW32"/>
-    <mergeCell ref="BB31:BF31"/>
-    <mergeCell ref="BG31:BM31"/>
-    <mergeCell ref="BN31:BR31"/>
-    <mergeCell ref="BS31:BW31"/>
-    <mergeCell ref="AM33:AQ33"/>
-    <mergeCell ref="AW33:BA33"/>
-    <mergeCell ref="BB33:BF33"/>
-    <mergeCell ref="BG33:BM33"/>
-    <mergeCell ref="BN33:BR33"/>
-    <mergeCell ref="BS33:BW33"/>
-    <mergeCell ref="E33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="U33:Y33"/>
-    <mergeCell ref="Z33:AE33"/>
-    <mergeCell ref="AM34:AQ34"/>
-    <mergeCell ref="AW34:BA34"/>
-    <mergeCell ref="BB34:BF34"/>
-    <mergeCell ref="BG34:BM34"/>
-    <mergeCell ref="BN34:BR34"/>
-    <mergeCell ref="BS34:BW34"/>
-    <mergeCell ref="E34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:Q34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:Y34"/>
-    <mergeCell ref="Z34:AE34"/>
-    <mergeCell ref="AM35:AQ35"/>
-    <mergeCell ref="AW35:BA35"/>
-    <mergeCell ref="BB35:BF35"/>
-    <mergeCell ref="BG35:BM35"/>
-    <mergeCell ref="BN35:BR35"/>
-    <mergeCell ref="BS35:BW35"/>
-    <mergeCell ref="E35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="N35:Q35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:Y35"/>
-    <mergeCell ref="Z35:AE35"/>
-    <mergeCell ref="AM36:AQ36"/>
-    <mergeCell ref="AW36:BA36"/>
-    <mergeCell ref="BB36:BF36"/>
-    <mergeCell ref="BG36:BM36"/>
-    <mergeCell ref="BN36:BR36"/>
-    <mergeCell ref="BS36:BW36"/>
-    <mergeCell ref="E36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N36:Q36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:Y36"/>
-    <mergeCell ref="Z36:AE36"/>
-    <mergeCell ref="AA26:AE26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="AM26:AQ26"/>
-    <mergeCell ref="AX26:BA26"/>
-    <mergeCell ref="BB26:BF26"/>
-    <mergeCell ref="BG26:BM26"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="E18:K18"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:Q26"/>
-    <mergeCell ref="U26:Y26"/>
-    <mergeCell ref="N25:Q25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U25:Y25"/>
-    <mergeCell ref="Z25:AE25"/>
-    <mergeCell ref="AR24:AV24"/>
-    <mergeCell ref="AW24:BA24"/>
-    <mergeCell ref="BB24:BF24"/>
-    <mergeCell ref="BG24:BM24"/>
-    <mergeCell ref="AR22:AV22"/>
-    <mergeCell ref="AW22:BA22"/>
-    <mergeCell ref="BB22:BF22"/>
-    <mergeCell ref="BG22:BM22"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:Y19"/>
+    <mergeCell ref="Z19:AE19"/>
+    <mergeCell ref="AR18:AV18"/>
+    <mergeCell ref="AW18:BA18"/>
+    <mergeCell ref="BB18:BF18"/>
+    <mergeCell ref="BG18:BM18"/>
+    <mergeCell ref="BN18:BR18"/>
+    <mergeCell ref="BS18:BW18"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:Y18"/>
+    <mergeCell ref="Z18:AE18"/>
+    <mergeCell ref="AF18:AL18"/>
+    <mergeCell ref="AM18:AQ18"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="BD2:BF3"/>
+    <mergeCell ref="BG2:BJ3"/>
+    <mergeCell ref="U4:AE5"/>
+    <mergeCell ref="AM4:AQ5"/>
+    <mergeCell ref="AW4:AY5"/>
+    <mergeCell ref="AZ4:BC5"/>
+    <mergeCell ref="BD4:BF5"/>
+    <mergeCell ref="BG4:BJ5"/>
+    <mergeCell ref="B2:K5"/>
+    <mergeCell ref="L2:T5"/>
+    <mergeCell ref="U2:AE3"/>
+    <mergeCell ref="AM2:AQ3"/>
+    <mergeCell ref="AW2:AY3"/>
+    <mergeCell ref="AZ2:BC3"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R18:R31">
